--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ACA508-6B1B-4DCD-924A-A7D54FEC8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1BBF31-47FB-44E4-8CCE-D0861C6D64F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24984" yWindow="2820" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -163,6 +163,17 @@
   <si>
     <t>Assets/ResAB/EffectPrefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Res/TmpRes/Prefabs/Effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_A.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab3</t>
   </si>
 </sst>
 </file>
@@ -573,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -822,6 +833,31 @@
         <v>Assets/ResAB/EffectPrefab/prefab2.prefab</v>
       </c>
     </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>ResEffect_3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>G8&amp;"/"&amp;H8</f>
+        <v>Assets/Res/TmpRes/Prefabs/Effect/Fire_A.prefab</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1BBF31-47FB-44E4-8CCE-D0861C6D64F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE76E30-3C85-4D16-BEFB-DB04B6289C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -141,14 +141,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>prefab1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab2.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -165,15 +157,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Res/TmpRes/Prefabs/Effect</t>
+    <t>prefab3</t>
+  </si>
+  <si>
+    <t>Effect1.prefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Fire_A.prefab</t>
+    <t>Effect2.prefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>prefab3</t>
+    <t>Effect3.prefab</t>
   </si>
 </sst>
 </file>
@@ -587,7 +582,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -596,8 +591,8 @@
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
@@ -785,7 +780,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -795,22 +790,22 @@
         <v>ResEffect_1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="I6" s="8" t="str">
         <f>G6&amp;"/"&amp;H6</f>
-        <v>Assets/ResAB/EffectPrefab/prefab1.prefab</v>
+        <v>Assets/ResAB/EffectPrefab/Effect1.prefab</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -820,22 +815,22 @@
         <v>ResEffect_2</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8" t="str">
         <f>G7&amp;"/"&amp;H7</f>
-        <v>Assets/ResAB/EffectPrefab/prefab2.prefab</v>
+        <v>Assets/ResAB/EffectPrefab/Effect2.prefab</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -845,17 +840,17 @@
         <v>ResEffect_3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="8" t="str">
         <f>G8&amp;"/"&amp;H8</f>
-        <v>Assets/Res/TmpRes/Prefabs/Effect/Fire_A.prefab</v>
+        <v>Assets/ResAB/EffectPrefab/Effect3.prefab</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE76E30-3C85-4D16-BEFB-DB04B6289C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454705C-82C5-4EC0-A570-442714321547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -51,6 +52,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -66,6 +68,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -76,6 +79,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,6 +107,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -169,6 +175,68 @@
   </si>
   <si>
     <t>Effect3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyShootEffect.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineGunLvl1Effect.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeHitShow_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathShow_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BeHitShow_1</t>
+  </si>
+  <si>
+    <t>ResEffect_DeathShow_1</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/DeathShow</t>
+  </si>
+  <si>
+    <t>BulletHit.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDeathExplosionPfx.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyShootEffect_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineGunLvl1Effect_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserFireEffect</t>
+  </si>
+  <si>
+    <t>EneryPylon_PFX</t>
+  </si>
+  <si>
+    <t>EneryPylon_PFX.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserFireEffect.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -187,6 +255,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -194,12 +263,14 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -579,16 +650,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
@@ -786,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D14" si="0">B6&amp;"_"&amp;C6</f>
         <v>ResEffect_1</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -799,7 +870,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f>G6&amp;"/"&amp;H6</f>
+        <f t="shared" ref="I6:I14" si="1">G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/EffectPrefab/Effect1.prefab</v>
       </c>
     </row>
@@ -811,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>ResEffect_2</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -824,7 +895,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="8" t="str">
-        <f>G7&amp;"/"&amp;H7</f>
+        <f t="shared" si="1"/>
         <v>Assets/ResAB/EffectPrefab/Effect2.prefab</v>
       </c>
     </row>
@@ -836,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="str">
-        <f>B8&amp;"_"&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>ResEffect_3</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -849,8 +920,162 @@
         <v>23</v>
       </c>
       <c r="I8" s="8" t="str">
-        <f>G8&amp;"/"&amp;H8</f>
+        <f t="shared" si="1"/>
         <v>Assets/ResAB/EffectPrefab/Effect3.prefab</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="str">
+        <f>B9&amp;"_"&amp;C9</f>
+        <v>ResEffect_MachineGunLvl1Effect_1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>D9&amp;"_"&amp;E9</f>
+        <v>ResEffect_MachineGunLvl1Effect_1_</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>G9&amp;"/"&amp;H9</f>
+        <v>Assets/ResAB/EffectPrefab/FireShow/MachineGunLvl1Effect.prefab</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="str">
+        <f>B10&amp;"_"&amp;C10</f>
+        <v>ResEffect_EneryPylon_PFX</v>
+      </c>
+      <c r="F10" t="str">
+        <f>D10&amp;"_"&amp;E10</f>
+        <v>ResEffect_EneryPylon_PFX_</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>G10&amp;"/"&amp;H10</f>
+        <v>Assets/ResAB/EffectPrefab/FireShow/EneryPylon_PFX.prefab</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="str">
+        <f>B11&amp;"_"&amp;C11</f>
+        <v>ResEffect_LaserFireEffect</v>
+      </c>
+      <c r="F11" t="str">
+        <f>D11&amp;"_"&amp;E11</f>
+        <v>ResEffect_LaserFireEffect_</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>G11&amp;"/"&amp;H11</f>
+        <v>Assets/ResAB/EffectPrefab/FireShow/LaserFireEffect.prefab</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_EnemyShootEffect_1</v>
+      </c>
+      <c r="F12" t="str">
+        <f>D12&amp;"_"&amp;E12</f>
+        <v>ResEffect_EnemyShootEffect_1_</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/EnemyShootEffect.prefab</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_BeHitShow_1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/BeHitShow/BulletHit.prefab</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_DeathShow_1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/DeathShow/BigDeathExplosionPfx.prefab</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454705C-82C5-4EC0-A570-442714321547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391AE2C-A9E3-4F32-BC07-4D52DC286B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -236,6 +225,67 @@
   </si>
   <si>
     <t>LaserFireEffect.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSolo1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashSolo1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitSolo1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletAoe1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashAoe1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitAoe1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drag1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击-弹道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击-火光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击-击中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体攻击-弹道</t>
+  </si>
+  <si>
+    <t>群体攻击-火光</t>
+  </si>
+  <si>
+    <t>群体攻击-击中</t>
+  </si>
+  <si>
+    <t>火柱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒气</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -650,25 +700,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -707,7 +758,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -738,7 +789,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -777,7 +828,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -810,7 +861,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -849,7 +900,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -857,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D14" si="0">B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D22" si="0">B6&amp;"_"&amp;C6</f>
         <v>ResEffect_1</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -870,11 +921,11 @@
         <v>21</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f t="shared" ref="I6:I14" si="1">G6&amp;"/"&amp;H6</f>
+        <f t="shared" ref="I6:I22" si="1">G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/EffectPrefab/Effect1.prefab</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
@@ -899,7 +950,7 @@
         <v>Assets/ResAB/EffectPrefab/Effect2.prefab</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
@@ -924,7 +975,7 @@
         <v>Assets/ResAB/EffectPrefab/Effect3.prefab</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
@@ -950,7 +1001,7 @@
         <v>Assets/ResAB/EffectPrefab/FireShow/MachineGunLvl1Effect.prefab</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
@@ -976,7 +1027,7 @@
         <v>Assets/ResAB/EffectPrefab/FireShow/EneryPylon_PFX.prefab</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1053,7 @@
         <v>Assets/ResAB/EffectPrefab/FireShow/LaserFireEffect.prefab</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1079,7 @@
         <v>Assets/ResAB/EffectPrefab/FireShow/EnemyShootEffect.prefab</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
@@ -1053,7 +1104,7 @@
         <v>Assets/ResAB/EffectPrefab/BeHitShow/BulletHit.prefab</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1076,6 +1127,214 @@
       <c r="I14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/EffectPrefab/DeathShow/BigDeathExplosionPfx.prefab</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_BulletSolo1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="str">
+        <f>C15&amp;".prefab"</f>
+        <v>BulletSolo1.prefab</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/BulletSolo1.prefab</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_FlashSolo1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ref="H16:H22" si="2">C16&amp;".prefab"</f>
+        <v>FlashSolo1.prefab</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/FlashSolo1.prefab</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_HitSolo1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>HitSolo1.prefab</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HitSolo1.prefab</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_BulletAoe1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>BulletAoe1.prefab</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/BulletAoe1.prefab</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_FlashAoe1</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>FlashAoe1.prefab</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/FlashAoe1.prefab</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_HitAoe1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>HitAoe1.prefab</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HitAoe1.prefab</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_Fire1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>Fire1.prefab</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/Fire1.prefab</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>ResEffect_Drag1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>Drag1.prefab</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/Drag1.prefab</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391AE2C-A9E3-4F32-BC07-4D52DC286B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B9A525-BCD9-4DAC-AA6F-821D6FADC07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="144">
   <si>
     <t>##var</t>
   </si>
@@ -287,6 +287,380 @@
   <si>
     <t>毒气</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthBar_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthBar.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效挂件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioSource.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioSource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔的显示圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerShow.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerStarBar_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔的星星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerStarBar.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭命中2</t>
+  </si>
+  <si>
+    <t>弩箭命中3</t>
+  </si>
+  <si>
+    <t>加农炮命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮命中2</t>
+  </si>
+  <si>
+    <t>加农炮命中3</t>
+  </si>
+  <si>
+    <t>Arrow_Hit_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow_Hit_2</t>
+  </si>
+  <si>
+    <t>Arrow_Hit_3</t>
+  </si>
+  <si>
+    <t>Cannon_Hit_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon_Hit_2</t>
+  </si>
+  <si>
+    <t>Cannon_Hit_3</t>
+  </si>
+  <si>
+    <r>
+      <t>HM_crossbow_impact_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HM_crossbow_impact_2.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_crossbow_impact_3.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_cannon_impact_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HM_cannon_impact_2.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HM_cannon_impact_3.prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>PathLineRenderer_1</t>
+  </si>
+  <si>
+    <t>路径指示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathLineRenderer.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭开火1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭开火2</t>
+  </si>
+  <si>
+    <t>弩箭开火3</t>
+  </si>
+  <si>
+    <t>加农炮开火1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮开火2</t>
+  </si>
+  <si>
+    <t>加农炮开火3</t>
+  </si>
+  <si>
+    <t>Arrow_Fire_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow_Fire_2</t>
+  </si>
+  <si>
+    <t>Arrow_Fire_3</t>
+  </si>
+  <si>
+    <t>Cannon_Fire_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon_Fire_2</t>
+  </si>
+  <si>
+    <t>Cannon_Fire_3</t>
+  </si>
+  <si>
+    <t>HM_crossbow_fire_1.prefab</t>
+  </si>
+  <si>
+    <t>HM_crossbow_fire_2.prefab</t>
+  </si>
+  <si>
+    <t>HM_crossbow_fire_3.prefab</t>
+  </si>
+  <si>
+    <t>HM_cannon_fire_1.prefab</t>
+  </si>
+  <si>
+    <t>HM_cannon_fire_2.prefab</t>
+  </si>
+  <si>
+    <t>HM_cannon_fire_3.prefab</t>
+  </si>
+  <si>
+    <t>ShootTextPrefab</t>
+  </si>
+  <si>
+    <t>飘血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShootTextPrefab.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainTowerBar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainTowerBar.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮命中2</t>
+  </si>
+  <si>
+    <t>龙击炮命中3</t>
+  </si>
+  <si>
+    <t>雷电塔施法1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔施法2</t>
+  </si>
+  <si>
+    <t>雷电塔施法3</t>
+  </si>
+  <si>
+    <t>雷电塔命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔命中2</t>
+  </si>
+  <si>
+    <t>雷电塔命中3</t>
+  </si>
+  <si>
+    <t>冰魔塔命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔命中2</t>
+  </si>
+  <si>
+    <t>冰魔塔命中3</t>
+  </si>
+  <si>
+    <t>加速塔命中1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速塔命中2</t>
+  </si>
+  <si>
+    <t>加速塔命中3</t>
+  </si>
+  <si>
+    <t>TowerDragon_Hit1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDragon_Hit2</t>
+  </si>
+  <si>
+    <t>TowerDragon_Hit3</t>
+  </si>
+  <si>
+    <t>TowerElec_Hit1</t>
+  </si>
+  <si>
+    <t>TowerElec_Hit2</t>
+  </si>
+  <si>
+    <t>TowerElec_Hit3</t>
+  </si>
+  <si>
+    <t>TowerElec_Skill1</t>
+  </si>
+  <si>
+    <t>TowerElec_Skill2</t>
+  </si>
+  <si>
+    <t>TowerElec_Skill3</t>
+  </si>
+  <si>
+    <t>TowerIce_Hit1</t>
+  </si>
+  <si>
+    <t>TowerIce_Hit2</t>
+  </si>
+  <si>
+    <t>TowerIce_Hit3</t>
+  </si>
+  <si>
+    <t>TowerTime_Hit1</t>
+  </si>
+  <si>
+    <t>TowerTime_Hit2</t>
+  </si>
+  <si>
+    <t>TowerTime_Hit3</t>
   </si>
 </sst>
 </file>
@@ -700,10 +1074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -806,7 +1181,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J3"/>
@@ -904,75 +1279,75 @@
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D22" si="0">B6&amp;"_"&amp;C6</f>
-        <v>ResEffect_1</v>
+        <f t="shared" ref="D6" si="0">B6&amp;"_"&amp;C6</f>
+        <v>ResEffect_HealthBar_1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f t="shared" ref="I6:I22" si="1">G6&amp;"/"&amp;H6</f>
-        <v>Assets/ResAB/EffectPrefab/Effect1.prefab</v>
+        <f t="shared" ref="I6" si="1">G6&amp;"/"&amp;H6</f>
+        <v>Assets/ResAB/EffectPrefab/BattleEffect/HealthBar.prefab</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_2</v>
+        <f t="shared" ref="D7" si="2">B7&amp;"_"&amp;C7</f>
+        <v>ResEffect_MainTowerBar</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/Effect2.prefab</v>
+        <f t="shared" ref="I7" si="3">G7&amp;"/"&amp;H7</f>
+        <v>Assets/ResAB/EffectPrefab/BattleEffect/MainTowerBar.prefab</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
-        <v>3</v>
+      <c r="C8" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_3</v>
+        <f t="shared" ref="D8" si="4">B8&amp;"_"&amp;C8</f>
+        <v>ResEffect_ShootTextPrefab</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/Effect3.prefab</v>
+        <f t="shared" ref="I8" si="5">G8&amp;"/"&amp;H8</f>
+        <v>Assets/ResAB/EffectPrefab/BattleEffect/ShootTextPrefab.prefab</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -980,25 +1355,24 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D9" t="str">
-        <f>B9&amp;"_"&amp;C9</f>
-        <v>ResEffect_MachineGunLvl1Effect_1</v>
-      </c>
-      <c r="F9" t="str">
-        <f>D9&amp;"_"&amp;E9</f>
-        <v>ResEffect_MachineGunLvl1Effect_1_</v>
+        <f t="shared" ref="D9:D11" si="6">B9&amp;"_"&amp;C9</f>
+        <v>ResEffect_AudioSource</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I9" s="8" t="str">
-        <f>G9&amp;"/"&amp;H9</f>
-        <v>Assets/ResAB/EffectPrefab/FireShow/MachineGunLvl1Effect.prefab</v>
+        <f t="shared" ref="I9:I11" si="7">G9&amp;"/"&amp;H9</f>
+        <v>Assets/ResAB/EffectPrefab/BattleEffect/AudioSource.prefab</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -1006,25 +1380,24 @@
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D10" t="str">
-        <f>B10&amp;"_"&amp;C10</f>
-        <v>ResEffect_EneryPylon_PFX</v>
-      </c>
-      <c r="F10" t="str">
-        <f>D10&amp;"_"&amp;E10</f>
-        <v>ResEffect_EneryPylon_PFX_</v>
+        <f t="shared" ref="D10" si="8">B10&amp;"_"&amp;C10</f>
+        <v>ResEffect_TowerShow</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I10" s="8" t="str">
-        <f>G10&amp;"/"&amp;H10</f>
-        <v>Assets/ResAB/EffectPrefab/FireShow/EneryPylon_PFX.prefab</v>
+        <f t="shared" ref="I10" si="9">G10&amp;"/"&amp;H10</f>
+        <v>Assets/ResAB/EffectPrefab/BattleEffect/TowerShow.prefab</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -1032,25 +1405,24 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D11" t="str">
-        <f>B11&amp;"_"&amp;C11</f>
-        <v>ResEffect_LaserFireEffect</v>
-      </c>
-      <c r="F11" t="str">
-        <f>D11&amp;"_"&amp;E11</f>
-        <v>ResEffect_LaserFireEffect_</v>
+        <f t="shared" si="6"/>
+        <v>ResEffect_TowerStarBar_1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="I11" s="8" t="str">
-        <f>G11&amp;"/"&amp;H11</f>
-        <v>Assets/ResAB/EffectPrefab/FireShow/LaserFireEffect.prefab</v>
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/EffectPrefab/BattleEffect/TowerStarBar.prefab</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -1058,101 +1430,100 @@
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_EnemyShootEffect_1</v>
-      </c>
-      <c r="F12" t="str">
-        <f>D12&amp;"_"&amp;E12</f>
-        <v>ResEffect_EnemyShootEffect_1_</v>
+        <f t="shared" ref="D12" si="10">B12&amp;"_"&amp;C12</f>
+        <v>ResEffect_PathLineRenderer_1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/FireShow/EnemyShootEffect.prefab</v>
+        <f t="shared" ref="I12" si="11">G12&amp;"/"&amp;H12</f>
+        <v>Assets/ResAB/EffectPrefab/BattleEffect/PathLineRenderer.prefab</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_BeHitShow_1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
+        <f t="shared" ref="D13:D56" si="12">B13&amp;"_"&amp;C13</f>
+        <v>ResEffect_1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/BeHitShow/BulletHit.prefab</v>
+        <f t="shared" ref="I13:I56" si="13">G13&amp;"/"&amp;H13</f>
+        <v>Assets/ResAB/EffectPrefab/Effect1.prefab</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_DeathShow_1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
+        <f t="shared" si="12"/>
+        <v>ResEffect_2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/DeathShow/BigDeathExplosionPfx.prefab</v>
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/Effect2.prefab</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
+      <c r="C15">
+        <v>3</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_BulletSolo1</v>
+        <f t="shared" si="12"/>
+        <v>ResEffect_3</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="str">
-        <f>C15&amp;".prefab"</f>
-        <v>BulletSolo1.prefab</v>
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="I15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/FireShow/BulletSolo1.prefab</v>
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/Effect3.prefab</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -1160,25 +1531,25 @@
         <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_FlashSolo1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>50</v>
+        <f>B16&amp;"_"&amp;C16</f>
+        <v>ResEffect_MachineGunLvl1Effect_1</v>
+      </c>
+      <c r="F16" t="str">
+        <f>D16&amp;"_"&amp;E16</f>
+        <v>ResEffect_MachineGunLvl1Effect_1_</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" ref="H16:H22" si="2">C16&amp;".prefab"</f>
-        <v>FlashSolo1.prefab</v>
+      <c r="H16" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="I16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/FireShow/FlashSolo1.prefab</v>
+        <f>G16&amp;"/"&amp;H16</f>
+        <v>Assets/ResAB/EffectPrefab/FireShow/MachineGunLvl1Effect.prefab</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -1186,25 +1557,25 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_HitSolo1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>51</v>
+        <f>B17&amp;"_"&amp;C17</f>
+        <v>ResEffect_EneryPylon_PFX</v>
+      </c>
+      <c r="F17" t="str">
+        <f>D17&amp;"_"&amp;E17</f>
+        <v>ResEffect_EneryPylon_PFX_</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>HitSolo1.prefab</v>
+      <c r="H17" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="I17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/FireShow/HitSolo1.prefab</v>
+        <f>G17&amp;"/"&amp;H17</f>
+        <v>Assets/ResAB/EffectPrefab/FireShow/EneryPylon_PFX.prefab</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -1212,25 +1583,25 @@
         <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_BulletAoe1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>52</v>
+        <f>B18&amp;"_"&amp;C18</f>
+        <v>ResEffect_LaserFireEffect</v>
+      </c>
+      <c r="F18" t="str">
+        <f>D18&amp;"_"&amp;E18</f>
+        <v>ResEffect_LaserFireEffect_</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>BulletAoe1.prefab</v>
+      <c r="H18" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="I18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/FireShow/BulletAoe1.prefab</v>
+        <f>G18&amp;"/"&amp;H18</f>
+        <v>Assets/ResAB/EffectPrefab/FireShow/LaserFireEffect.prefab</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
@@ -1238,25 +1609,25 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_FlashAoe1</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>53</v>
+        <f t="shared" si="12"/>
+        <v>ResEffect_EnemyShootEffect_1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>D19&amp;"_"&amp;E19</f>
+        <v>ResEffect_EnemyShootEffect_1_</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>FlashAoe1.prefab</v>
+      <c r="H19" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/FireShow/FlashAoe1.prefab</v>
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/EnemyShootEffect.prefab</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -1264,25 +1635,24 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_HitAoe1</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>54</v>
+        <f t="shared" si="12"/>
+        <v>ResEffect_BeHitShow_1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>HitAoe1.prefab</v>
+        <v>31</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/FireShow/HitAoe1.prefab</v>
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/BeHitShow/BulletHit.prefab</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -1290,25 +1660,24 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>ResEffect_Fire1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>55</v>
+        <f t="shared" si="12"/>
+        <v>ResEffect_DeathShow_1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>Fire1.prefab</v>
+        <v>32</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="I21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/EffectPrefab/FireShow/Fire1.prefab</v>
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/DeathShow/BigDeathExplosionPfx.prefab</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -1316,30 +1685,902 @@
         <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_BulletSolo1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="str">
+        <f>C22&amp;".prefab"</f>
+        <v>BulletSolo1.prefab</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/BulletSolo1.prefab</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_FlashSolo1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" ref="H23:H29" si="14">C23&amp;".prefab"</f>
+        <v>FlashSolo1.prefab</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/FlashSolo1.prefab</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_HitSolo1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="14"/>
+        <v>HitSolo1.prefab</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HitSolo1.prefab</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_BulletAoe1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="14"/>
+        <v>BulletAoe1.prefab</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/BulletAoe1.prefab</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_FlashAoe1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="14"/>
+        <v>FlashAoe1.prefab</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/FlashAoe1.prefab</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_HitAoe1</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="14"/>
+        <v>HitAoe1.prefab</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HitAoe1.prefab</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_Fire1</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="14"/>
+        <v>Fire1.prefab</v>
+      </c>
+      <c r="I28" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/Fire1.prefab</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
+      <c r="D29" t="str">
+        <f t="shared" si="12"/>
         <v>ResEffect_Drag1</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
+      <c r="G29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="14"/>
         <v>Drag1.prefab</v>
       </c>
-      <c r="I22" s="8" t="str">
-        <f t="shared" si="1"/>
+      <c r="I29" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Assets/ResAB/EffectPrefab/FireShow/Drag1.prefab</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ref="D30:D32" si="15">B30&amp;"_"&amp;C30</f>
+        <v>ResEffect_Arrow_Fire_1</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f t="shared" ref="I30:I32" si="16">G30&amp;"/"&amp;H30</f>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HM_crossbow_fire_1.prefab</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="15"/>
+        <v>ResEffect_Arrow_Fire_2</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HM_crossbow_fire_2.prefab</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="15"/>
+        <v>ResEffect_Arrow_Fire_3</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HM_crossbow_fire_3.prefab</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_Arrow_Hit_1</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/BeHitShow/HM_crossbow_impact_1.prefab</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_Arrow_Hit_2</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/BeHitShow/HM_crossbow_impact_2.prefab</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_Arrow_Hit_3</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/BeHitShow/HM_crossbow_impact_3.prefab</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" ref="D36:D38" si="17">B36&amp;"_"&amp;C36</f>
+        <v>ResEffect_Cannon_Fire_1</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="8" t="str">
+        <f t="shared" ref="I36:I38" si="18">G36&amp;"/"&amp;H36</f>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HM_cannon_fire_1.prefab</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="17"/>
+        <v>ResEffect_Cannon_Fire_2</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HM_cannon_fire_2.prefab</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="17"/>
+        <v>ResEffect_Cannon_Fire_3</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/HM_cannon_fire_3.prefab</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_Cannon_Hit_1</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/BeHitShow/HM_cannon_impact_1.prefab</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_Cannon_Hit_2</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/BeHitShow/HM_cannon_impact_2.prefab</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_Cannon_Hit_3</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/BeHitShow/HM_cannon_impact_3.prefab</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerDragon_Hit1</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>C42&amp;".prefab"</f>
+        <v>TowerDragon_Hit1.prefab</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerDragon_Hit1.prefab</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerDragon_Hit2</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f t="shared" ref="H43:H56" si="19">C43&amp;".prefab"</f>
+        <v>TowerDragon_Hit2.prefab</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerDragon_Hit2.prefab</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerDragon_Hit3</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerDragon_Hit3.prefab</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerDragon_Hit3.prefab</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerElec_Hit1</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerElec_Hit1.prefab</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerElec_Hit1.prefab</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerElec_Hit2</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerElec_Hit2.prefab</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerElec_Hit2.prefab</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerElec_Hit3</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerElec_Hit3.prefab</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerElec_Hit3.prefab</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerElec_Skill1</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerElec_Skill1.prefab</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerElec_Skill1.prefab</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerElec_Skill2</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerElec_Skill2.prefab</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerElec_Skill2.prefab</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerElec_Skill3</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerElec_Skill3.prefab</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerElec_Skill3.prefab</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerIce_Hit1</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerIce_Hit1.prefab</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerIce_Hit1.prefab</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerIce_Hit2</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerIce_Hit2.prefab</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerIce_Hit2.prefab</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerIce_Hit3</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerIce_Hit3.prefab</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerIce_Hit3.prefab</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerTime_Hit1</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerTime_Hit1.prefab</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerTime_Hit1.prefab</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerTime_Hit2</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerTime_Hit2.prefab</v>
+      </c>
+      <c r="I55" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerTime_Hit2.prefab</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="12"/>
+        <v>ResEffect_TowerTime_Hit3</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>TowerTime_Hit3.prefab</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f t="shared" si="13"/>
+        <v>Assets/ResAB/EffectPrefab/FireShow/TowerTime_Hit3.prefab</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD0C80-4714-40A8-B82F-753BC1784809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4D9618-2894-41B4-8D3B-E87A9D5B6CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="705">
   <si>
     <t>##var</t>
   </si>
@@ -929,9 +929,6 @@
     <t>ResEffect_LevelUp</t>
   </si>
   <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/LevelUp.prefab</t>
-  </si>
-  <si>
     <t>ResEffect_Placed</t>
   </si>
   <si>
@@ -2064,15 +2061,6 @@
   </si>
   <si>
     <t>Assets/ResAB/EffectPrefab/BeHitShow/BuffTowerCurse3.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_BuffHuoYan1</t>
-  </si>
-  <si>
-    <t>BuffHuoYan1.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/BuffHuoYan1.prefab</t>
   </si>
   <si>
     <t>ResEffect_BuffTowerWater1</t>
@@ -2191,6 +2179,101 @@
   </si>
   <si>
     <t>Assets/ResAB/EffectPrefab/FireShow/Niao3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_MonsterShow</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物出场特效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterShow.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/LevelUp.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/MonsterShow.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Buff_Line3_Fire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Line3_Fire.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Buff_Line3_Fire.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭暴击命中3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Arrow_CritHit_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM_crossbow_crit_impact_3.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/HM_crossbow_crit_impact_3.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleLightningBoltPrefab.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SimpleLightningBoltPrefab.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_SimpleLightningBoltPrefab1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电特效1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_SimpleLightningBoltAnimatedPrefab1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电特效2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleLightningBoltAnimatedPrefab.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SimpleLightningBoltAnimatedPrefab.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningTrail.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/LightningTrail.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电子弹拖尾特效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_LightningTrailPrefab1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2345,7 +2428,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2677,26 +2770,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y202"/>
+  <dimension ref="A1:Y211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47:G49"/>
+      <pane ySplit="5" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.21875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2733,7 +2826,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2855,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2799,7 +2892,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2830,7 +2923,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2867,7 +2960,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>225</v>
       </c>
@@ -2884,7 +2977,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>226</v>
       </c>
@@ -2901,7 +2994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>227</v>
       </c>
@@ -2918,7 +3011,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>228</v>
       </c>
@@ -2935,7 +3028,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>229</v>
       </c>
@@ -2952,7 +3045,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>230</v>
       </c>
@@ -2969,7 +3062,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>231</v>
       </c>
@@ -2986,7 +3079,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>232</v>
       </c>
@@ -3003,7 +3096,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>233</v>
       </c>
@@ -3020,7 +3113,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>234</v>
       </c>
@@ -3037,7 +3130,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>235</v>
       </c>
@@ -3054,7 +3147,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>236</v>
       </c>
@@ -3071,7 +3164,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>252</v>
       </c>
@@ -3088,7 +3181,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>237</v>
       </c>
@@ -3105,7 +3198,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>238</v>
       </c>
@@ -3122,7 +3215,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>239</v>
       </c>
@@ -3139,7 +3232,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>240</v>
       </c>
@@ -3156,7 +3249,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>241</v>
       </c>
@@ -3173,7 +3266,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>247</v>
       </c>
@@ -3190,12 +3283,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>253</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>37</v>
@@ -3207,12 +3300,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>254</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>37</v>
@@ -3224,12 +3317,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>255</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>37</v>
@@ -3241,12 +3334,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>256</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>37</v>
@@ -3258,12 +3351,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>257</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>37</v>
@@ -3275,12 +3368,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>258</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>37</v>
@@ -3292,12 +3385,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>259</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>37</v>
@@ -3309,12 +3402,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>16</v>
@@ -3326,12 +3419,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>16</v>
@@ -3343,12 +3436,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
@@ -3360,12 +3453,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
@@ -3377,12 +3470,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>16</v>
@@ -3394,12 +3487,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>16</v>
@@ -3411,12 +3504,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>16</v>
@@ -3428,12 +3521,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
@@ -3445,12 +3538,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>16</v>
@@ -3462,12 +3555,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>16</v>
@@ -3479,12 +3572,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>672</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
@@ -3496,12 +3589,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
@@ -3513,12 +3606,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
@@ -3530,12 +3623,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>16</v>
@@ -3547,2659 +3640,2752 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="G48" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="11" t="s">
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="G49" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="G48" s="10" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>686</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D52"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>15</v>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D54" t="s">
+        <v>682</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>18</v>
+        <v>683</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G64" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
+      <c r="D65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="3" t="s">
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
+      <c r="F66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="3" t="s">
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
+      <c r="F67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="7" t="s">
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" s="7" t="s">
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="7" t="s">
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="7" t="s">
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" s="7" t="s">
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G69" s="7" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" s="7" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
+      <c r="D74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" s="3" t="s">
+      <c r="G74" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G71" s="7" t="s">
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
+      <c r="D75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="G75" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G72" s="7" t="s">
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
+      <c r="D76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="G76" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G73" s="7" t="s">
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="3" t="s">
+      <c r="D77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="G77" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G74" s="7" t="s">
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
+      <c r="D78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="G78" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G75" s="7" t="s">
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
+      <c r="D79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="G79" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G76" s="7" t="s">
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="3" t="s">
+      <c r="D80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="G80" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G77" s="7" t="s">
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="G81" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G78" s="7" t="s">
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
+      <c r="D82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="G82" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="G79" s="7" t="s">
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
+      <c r="D83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="G83" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G80" s="7" t="s">
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="7" t="s">
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="3" t="s">
+      <c r="D85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G82" s="7" t="s">
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G83" s="7" t="s">
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="3" t="s">
+      <c r="D87" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G84" s="7" t="s">
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G85" s="7" t="s">
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="3" t="s">
+      <c r="D89" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G86" s="7" t="s">
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
+      <c r="D91" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87" s="7" t="s">
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
+      <c r="D92" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G88" s="7" t="s">
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
+      <c r="D93" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G89" s="7" t="s">
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
+      <c r="D94" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G90" s="7" t="s">
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
+      <c r="D95" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="7" t="s">
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
+      <c r="D96" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" s="7" t="s">
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="3" t="s">
+      <c r="D97" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="G97" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G93" s="7" t="s">
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="3" t="s">
+      <c r="D98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="G98" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G94" s="7" t="s">
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="3" t="s">
+      <c r="D99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F95" s="3" t="s">
+      <c r="G99" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="G95" s="7" t="s">
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="3" t="s">
+      <c r="D100" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="G100" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G96" s="7" t="s">
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="3" t="s">
+      <c r="D101" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="G101" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G97" s="7" t="s">
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="3" t="s">
+      <c r="D102" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="G102" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G98" s="7" t="s">
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" s="3" t="s">
+      <c r="D103" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="G103" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G99" s="7" t="s">
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
+      <c r="D104" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="G104" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G100" s="7" t="s">
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
+      <c r="D105" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="G105" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G101" s="7" t="s">
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B102" s="3" t="s">
+      <c r="D106" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="G106" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G102" s="7" t="s">
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B103" s="3" t="s">
+      <c r="D107" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="3" t="s">
+      <c r="G107" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G103" s="7" t="s">
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104" s="3" t="s">
+      <c r="D108" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="G108" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G104" s="7" t="s">
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="3" t="s">
+      <c r="D109" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="G109" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G105" s="7" t="s">
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
+      <c r="D110" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="G110" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G106" s="7" t="s">
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
+      <c r="D111" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="G111" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G107" s="7" t="s">
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B108" s="3" t="s">
+      <c r="D112" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F109" s="9" t="s">
+      <c r="G113" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G109" s="7" t="s">
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="9" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F110" s="9" t="s">
+      <c r="G114" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G110" s="7" t="s">
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" s="9" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F111" s="9" t="s">
+      <c r="G115" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G111" s="7" t="s">
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" s="9" t="s">
+      <c r="G116" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G112" s="7" t="s">
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B113" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F113" s="9" t="s">
+      <c r="G117" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="G113" s="7" t="s">
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F114" s="9" t="s">
+      <c r="G118" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G114" s="7" t="s">
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" s="9" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F115" s="9" t="s">
+      <c r="G119" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="G115" s="7" t="s">
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B116" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" s="9" t="s">
+      <c r="G120" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G116" s="7" t="s">
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B117" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F117" s="9" t="s">
+      <c r="G121" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G117" s="7" t="s">
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B118" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F118" s="9" t="s">
+      <c r="G122" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G118" s="7" t="s">
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B119" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" s="9" t="s">
+      <c r="G123" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="G119" s="7" t="s">
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" s="9" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F120" s="9" t="s">
+      <c r="G124" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="G120" s="7" t="s">
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B121" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F121" s="9" t="s">
+      <c r="G125" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="G121" s="7" t="s">
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" s="9" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B122" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F122" s="9" t="s">
+      <c r="G126" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G122" s="7" t="s">
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B123" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F123" s="9" t="s">
+      <c r="G127" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="G123" s="7" t="s">
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" s="9" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B124" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F124" s="9" t="s">
+      <c r="G128" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G124" s="7" t="s">
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" s="9" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B125" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F125" s="9" t="s">
+      <c r="G129" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G125" s="7" t="s">
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B126" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F126" s="9" t="s">
+      <c r="G130" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="G126" s="7" t="s">
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F131" s="9" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B127" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F127" s="9" t="s">
+      <c r="G131" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="G127" s="7" t="s">
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B128" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F128" s="9" t="s">
+      <c r="G132" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G128" s="7" t="s">
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F129" s="9" t="s">
+      <c r="G133" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G129" s="7" t="s">
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" s="9" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F130" s="9" t="s">
+      <c r="G134" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="G130" s="7" t="s">
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F131" s="9" t="s">
+      <c r="G135" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="G131" s="7" t="s">
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F132" s="9" t="s">
+      <c r="G136" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G132" s="7" t="s">
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F133" s="9" t="s">
+      <c r="G137" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="G133" s="7" t="s">
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138" s="9" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F134" s="9" t="s">
+      <c r="G138" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="G134" s="7" t="s">
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F135" s="9" t="s">
+      <c r="G139" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="G135" s="7" t="s">
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F136" s="9" t="s">
+      <c r="G140" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="G136" s="7" t="s">
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F141" s="9" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B137" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F137" s="9" t="s">
+      <c r="G141" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G137" s="7" t="s">
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B138" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F138" s="9" t="s">
+      <c r="G142" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G138" s="7" t="s">
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139" s="3" t="s">
+      <c r="D143" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F139" s="9" t="s">
+      <c r="G143" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="G139" s="7" t="s">
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B140" s="3" t="s">
+      <c r="D144" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F140" s="9" t="s">
+      <c r="G144" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="G140" s="7" t="s">
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" s="3" t="s">
+      <c r="D145" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F141" s="9" t="s">
+      <c r="G145" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="G141" s="7" t="s">
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B142" s="3" t="s">
+      <c r="D146" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F142" s="9" t="s">
+      <c r="G146" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="G142" s="7" t="s">
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B143" s="3" t="s">
+      <c r="D147" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F143" s="9" t="s">
+      <c r="G147" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="G143" s="7" t="s">
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B144" s="3" t="s">
+      <c r="D148" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F144" s="9" t="s">
+      <c r="G148" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="G144" s="7" t="s">
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B145" s="3" t="s">
+      <c r="D149" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F145" s="9" t="s">
+      <c r="G149" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="G145" s="7" t="s">
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B146" s="3" t="s">
+      <c r="D150" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F146" s="9" t="s">
+      <c r="G150" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="G146" s="7" t="s">
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B147" s="3" t="s">
+      <c r="D151" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F147" s="9" t="s">
+      <c r="G151" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="G147" s="7" t="s">
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B148" s="3" t="s">
+      <c r="D152" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F148" s="9" t="s">
+      <c r="G152" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="G148" s="7" t="s">
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B149" s="3" t="s">
+      <c r="D153" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F153" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F149" s="9" t="s">
+      <c r="G153" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="G149" s="7" t="s">
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B150" s="3" t="s">
+      <c r="D154" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F150" s="9" t="s">
+      <c r="G154" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="G150" s="7" t="s">
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="3" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B151" s="3" t="s">
+      <c r="D155" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="9" t="s">
+      <c r="G155" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="G151" s="7" t="s">
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B152" s="3" t="s">
+      <c r="D156" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F156" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F152" s="9" t="s">
+      <c r="G156" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="G152" s="7" t="s">
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B153" s="3" t="s">
+      <c r="D157" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F153" s="9" t="s">
+      <c r="G157" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="G153" s="7" t="s">
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B154" s="3" t="s">
+      <c r="D158" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F158" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F154" s="9" t="s">
+      <c r="G158" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="G154" s="7" t="s">
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="3" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B155" s="3" t="s">
+      <c r="D159" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F159" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F155" s="9" t="s">
+      <c r="G159" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="G155" s="7" t="s">
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B156" s="3" t="s">
+      <c r="D160" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F160" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F156" s="9" t="s">
+      <c r="G160" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="G156" s="7" t="s">
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="3" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B157" s="3" t="s">
+      <c r="D161" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F157" s="9" t="s">
+      <c r="G161" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="G157" s="7" t="s">
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B158" s="3" t="s">
+      <c r="D162" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F158" s="9" t="s">
+      <c r="G162" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="G158" s="7" t="s">
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="3" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B159" s="3" t="s">
+      <c r="D163" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F163" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F159" s="9" t="s">
+      <c r="G163" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="G159" s="7" t="s">
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B160" s="3" t="s">
+      <c r="D164" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F164" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F160" s="9" t="s">
+      <c r="G164" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="G160" s="7" t="s">
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B161" s="3" t="s">
+      <c r="D165" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F161" s="9" t="s">
+      <c r="G165" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="G161" s="7" t="s">
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B162" s="3" t="s">
+      <c r="D166" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" s="9" t="s">
+      <c r="G166" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="G162" s="7" t="s">
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="3" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B163" s="3" t="s">
+      <c r="D167" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F163" s="9" t="s">
+      <c r="G167" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="G163" s="7" t="s">
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="3" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B164" s="3" t="s">
+      <c r="D168" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F168" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F164" s="9" t="s">
+      <c r="G168" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="G164" s="7" t="s">
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B165" s="3" t="s">
+      <c r="D169" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F165" s="9" t="s">
+      <c r="G169" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="G165" s="7" t="s">
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B166" s="3" t="s">
+      <c r="D170" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F170" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F166" s="9" t="s">
+      <c r="G170" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="G166" s="7" t="s">
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B167" s="3" t="s">
+      <c r="D171" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F171" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F167" s="9" t="s">
+      <c r="G171" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="G167" s="7" t="s">
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="3" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B168" s="3" t="s">
+      <c r="D172" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F172" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F168" s="9" t="s">
+      <c r="G172" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="G168" s="7" t="s">
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B169" s="3" t="s">
+      <c r="D173" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F173" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D169" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F169" s="6" t="s">
+      <c r="G173" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="G169" s="7" t="s">
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B170" s="3" t="s">
+      <c r="D174" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F174" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="D170" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F170" s="6" t="s">
+      <c r="G174" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G170" s="7" t="s">
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B171" s="3" t="s">
+      <c r="D175" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F175" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="D171" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F171" s="6" t="s">
+      <c r="G175" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G171" s="7" t="s">
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="3" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B172" s="3" t="s">
+      <c r="D176" t="s">
+        <v>191</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D172" t="s">
-        <v>191</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F172" s="6" t="s">
+      <c r="G176" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="G172" s="7" t="s">
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="3" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B173" s="3" t="s">
+      <c r="D177" t="s">
+        <v>192</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F177" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D173" t="s">
-        <v>192</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F173" s="6" t="s">
+      <c r="G177" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="G173" s="7" t="s">
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B174" s="3" t="s">
+      <c r="D178" t="s">
+        <v>193</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F178" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D174" t="s">
-        <v>193</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F174" s="6" t="s">
+      <c r="G178" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G174" s="7" t="s">
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="3" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B175" s="3" t="s">
+      <c r="D179" t="s">
+        <v>194</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F179" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="D175" t="s">
-        <v>194</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F175" s="6" t="s">
+      <c r="G179" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="G175" s="7" t="s">
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B176" s="3" t="s">
+      <c r="D180" t="s">
+        <v>195</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F180" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D176" t="s">
-        <v>195</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F176" s="6" t="s">
+      <c r="G180" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="G176" s="7" t="s">
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="3" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B177" s="3" t="s">
+      <c r="D181" t="s">
+        <v>196</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F181" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="D177" t="s">
-        <v>196</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F177" s="6" t="s">
+      <c r="G181" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G177" s="7" t="s">
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="3" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B178" s="3" t="s">
+      <c r="D182" t="s">
+        <v>197</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D178" t="s">
-        <v>197</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F178" s="6" t="s">
+      <c r="G182" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G178" s="7" t="s">
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B179" s="3" t="s">
+      <c r="D183" t="s">
+        <v>198</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="D179" t="s">
-        <v>198</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F179" s="6" t="s">
+      <c r="G183" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="G179" s="7" t="s">
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B180" s="3" t="s">
+      <c r="D184" t="s">
+        <v>199</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F184" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="D180" t="s">
-        <v>199</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F180" s="6" t="s">
+      <c r="G184" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="G180" s="7" t="s">
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B181" s="3" t="s">
+      <c r="D185" t="s">
+        <v>200</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F185" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="D181" t="s">
-        <v>200</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F181" s="6" t="s">
+      <c r="G185" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="G181" s="7" t="s">
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B182" s="3" t="s">
+      <c r="D186" t="s">
+        <v>201</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F186" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="D182" t="s">
-        <v>201</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F182" s="6" t="s">
+      <c r="G186" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G182" s="7" t="s">
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B183" s="3" t="s">
+      <c r="D187" t="s">
+        <v>202</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F187" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D183" t="s">
-        <v>202</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F183" s="6" t="s">
+      <c r="G187" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="G183" s="7" t="s">
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="3" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B184" s="3" t="s">
+      <c r="D188" t="s">
+        <v>203</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D184" t="s">
-        <v>203</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B185" s="3" t="s">
+      <c r="D189" t="s">
+        <v>204</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F189" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="D185" t="s">
-        <v>204</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F185" s="6" t="s">
+      <c r="G189" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="G185" s="7" t="s">
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B186" s="3" t="s">
+      <c r="D190" t="s">
+        <v>205</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F190" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="D186" t="s">
-        <v>205</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F186" s="6" t="s">
+      <c r="G190" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="G186" s="7" t="s">
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="3" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B187" s="3" t="s">
+      <c r="D191" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F191" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="D187" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F187" s="6" t="s">
+      <c r="G191" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="G187" s="7" t="s">
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="3" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B188" s="3" t="s">
+      <c r="D192" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F192" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="D188" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F188" s="6" t="s">
+      <c r="G192" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="G188" s="7" t="s">
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="3" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B189" s="3" t="s">
+      <c r="D193" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F193" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="D189" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F189" s="6" t="s">
+      <c r="G193" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="G189" s="7" t="s">
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="3" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B190" s="3" t="s">
+      <c r="D194" t="s">
+        <v>206</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F194" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="D190" t="s">
-        <v>206</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F190" s="6" t="s">
+      <c r="G194" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="G190" s="7" t="s">
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="3" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B191" s="3" t="s">
+      <c r="D195" t="s">
+        <v>207</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="D191" t="s">
-        <v>207</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F191" s="6" t="s">
+      <c r="G195" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="G191" s="7" t="s">
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B192" s="3" t="s">
+      <c r="D196" t="s">
+        <v>208</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F196" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="D192" t="s">
-        <v>208</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F192" s="6" t="s">
+      <c r="G196" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="G192" s="7" t="s">
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="3" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B193" s="3" t="s">
+      <c r="D197" t="s">
+        <v>209</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F197" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="D193" t="s">
-        <v>209</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F193" s="6" t="s">
+      <c r="G197" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="G193" s="7" t="s">
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="3" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B194" s="3" t="s">
+      <c r="D198" t="s">
+        <v>210</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F198" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="D194" t="s">
-        <v>210</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F194" s="6" t="s">
+      <c r="G198" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G194" s="7" t="s">
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="3" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B195" s="3" t="s">
+      <c r="D199" t="s">
+        <v>211</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F199" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="D195" t="s">
-        <v>211</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F195" s="6" t="s">
+      <c r="G199" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="G195" s="7" t="s">
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="3" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B196" s="3" t="s">
+      <c r="D200" t="s">
+        <v>212</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F200" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="D196" t="s">
-        <v>212</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F196" s="6" t="s">
+      <c r="G200" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="G196" s="7" t="s">
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="3" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B197" s="3" t="s">
+      <c r="D201" t="s">
+        <v>213</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F201" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="D197" t="s">
-        <v>213</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F197" s="6" t="s">
+      <c r="G201" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="G197" s="7" t="s">
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B198" s="3" t="s">
+      <c r="D202" t="s">
+        <v>214</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F202" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="D198" t="s">
-        <v>214</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F198" s="6" t="s">
+      <c r="G202" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="G198" s="7" t="s">
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="3" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B199" s="3" t="s">
+      <c r="D203" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F203" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="D199" t="s">
-        <v>215</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F199" s="6" t="s">
+      <c r="G203" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="G199" s="7" t="s">
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="3" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B200" s="3" t="s">
+      <c r="D204" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F204" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="G204" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D205" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="G200" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B201" s="3" t="s">
+      <c r="E205" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F205" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="D201" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F201" s="6" t="s">
+      <c r="G205" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="G201" s="7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B202" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>655</v>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B43">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
+  <conditionalFormatting sqref="B44">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B46">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="B54">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4D9618-2894-41B4-8D3B-E87A9D5B6CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D6C195-2F15-4C68-BD54-14C7898E83BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="707">
   <si>
     <t>##var</t>
   </si>
@@ -415,24 +415,6 @@
     <t>种子治疗1</t>
   </si>
   <si>
-    <t>ResEffect_FireTowerAoShu1</t>
-  </si>
-  <si>
-    <t>奥术精灵1开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerAoShu2</t>
-  </si>
-  <si>
-    <t>奥术精灵2开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerAoShu3</t>
-  </si>
-  <si>
-    <t>奥术精灵3开火</t>
-  </si>
-  <si>
     <t>ResEffect_FireTowerCurse1</t>
   </si>
   <si>
@@ -503,24 +485,6 @@
   </si>
   <si>
     <t>火球塔3开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerGoblin1</t>
-  </si>
-  <si>
-    <t>窃贼哥布林1开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerGoblin2</t>
-  </si>
-  <si>
-    <t>窃贼哥布林2开火</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerGoblin3</t>
-  </si>
-  <si>
-    <t>窃贼哥布林3开火</t>
   </si>
   <si>
     <t>ResEffect_FireTowerIceArrow1</t>
@@ -1349,24 +1313,6 @@
     <t>ResEffect_SeedHeal1</t>
   </si>
   <si>
-    <t>FireTowerAoShu1.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerAoShu1.prefab</t>
-  </si>
-  <si>
-    <t>FireTowerAoShu2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerAoShu2.prefab</t>
-  </si>
-  <si>
-    <t>FireTowerAoShu3.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerAoShu3.prefab</t>
-  </si>
-  <si>
     <t>FireTowerCurse1.prefab</t>
   </si>
   <si>
@@ -1437,24 +1383,6 @@
   </si>
   <si>
     <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerFireBall3.prefab</t>
-  </si>
-  <si>
-    <t>FireTowerGoblin1.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGoblin1.prefab</t>
-  </si>
-  <si>
-    <t>FireTowerGoblin2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGoblin2.prefab</t>
-  </si>
-  <si>
-    <t>FireTowerGoblin3.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGoblin3.prefab</t>
   </si>
   <si>
     <t>FireTowerIceArrow1.prefab</t>
@@ -2274,6 +2202,94 @@
   <si>
     <t>ResEffect_LightningTrailPrefab1</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹开火</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireTowerBomb1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireTowerBomb2.prefab</t>
+  </si>
+  <si>
+    <t>FireTowerBomb3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerBomb1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerBomb2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerBomb3.prefab</t>
+  </si>
+  <si>
+    <t>炸弹1命中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹2命中</t>
+  </si>
+  <si>
+    <t>炸弹3命中</t>
+  </si>
+  <si>
+    <t>HitTowerBomb1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitTowerBomb2.prefab</t>
+  </si>
+  <si>
+    <t>HitTowerBomb3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/HitTowerBomb1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/HitTowerBomb2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/HitTowerBomb3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_BuffTowerBomb3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹3眩晕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTowerBomb3.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/BuffTowerBomb3.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerBomb1</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerBomb2</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerBomb3</t>
+  </si>
+  <si>
+    <t>ResEffect_HitTowerBomb1</t>
+  </si>
+  <si>
+    <t>ResEffect_HitTowerBomb2</t>
+  </si>
+  <si>
+    <t>ResEffect_HitTowerBomb3</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -2421,6 +2437,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2770,26 +2789,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y211"/>
+  <dimension ref="A1:Y214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B211" sqref="B211"/>
+      <pane ySplit="5" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.25" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2826,7 +2845,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +2874,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2892,7 +2911,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2923,7 +2942,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2960,813 +2979,813 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D52"/>
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="D54" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -3778,12 +3797,12 @@
         <v>17</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>15</v>
@@ -3795,12 +3814,12 @@
         <v>18</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>19</v>
@@ -3809,32 +3828,32 @@
         <v>16</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>20</v>
@@ -3846,12 +3865,12 @@
         <v>21</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>22</v>
@@ -3863,12 +3882,12 @@
         <v>23</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>24</v>
@@ -3880,12 +3899,12 @@
         <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>26</v>
@@ -3897,12 +3916,12 @@
         <v>27</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>28</v>
@@ -3914,12 +3933,12 @@
         <v>29</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>30</v>
@@ -3931,12 +3950,12 @@
         <v>32</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>33</v>
@@ -3948,12 +3967,12 @@
         <v>34</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>35</v>
@@ -3965,15 +3984,15 @@
         <v>36</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>37</v>
@@ -3982,15 +4001,15 @@
         <v>38</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>37</v>
@@ -3999,15 +4018,15 @@
         <v>39</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>37</v>
@@ -4016,15 +4035,15 @@
         <v>40</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>37</v>
@@ -4033,10 +4052,10 @@
         <v>41</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>42</v>
       </c>
@@ -4050,10 +4069,10 @@
         <v>44</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>45</v>
       </c>
@@ -4067,12 +4086,12 @@
         <v>47</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>48</v>
@@ -4081,15 +4100,15 @@
         <v>37</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>49</v>
@@ -4098,15 +4117,15 @@
         <v>37</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>50</v>
@@ -4115,15 +4134,15 @@
         <v>37</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>51</v>
@@ -4132,15 +4151,15 @@
         <v>37</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>52</v>
@@ -4149,15 +4168,15 @@
         <v>37</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>53</v>
@@ -4166,15 +4185,15 @@
         <v>37</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>54</v>
@@ -4183,15 +4202,15 @@
         <v>37</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>55</v>
@@ -4200,15 +4219,15 @@
         <v>37</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>56</v>
@@ -4217,15 +4236,15 @@
         <v>37</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>57</v>
@@ -4234,15 +4253,15 @@
         <v>37</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>58</v>
@@ -4254,12 +4273,12 @@
         <v>59</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>60</v>
@@ -4271,12 +4290,12 @@
         <v>61</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>62</v>
@@ -4288,12 +4307,12 @@
         <v>63</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>64</v>
@@ -4305,12 +4324,12 @@
         <v>65</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>66</v>
@@ -4322,12 +4341,12 @@
         <v>67</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>68</v>
@@ -4339,29 +4358,29 @@
         <v>69</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>70</v>
@@ -4373,12 +4392,12 @@
         <v>71</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>72</v>
@@ -4390,12 +4409,12 @@
         <v>73</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>74</v>
@@ -4407,12 +4426,12 @@
         <v>75</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>76</v>
@@ -4424,12 +4443,12 @@
         <v>77</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>78</v>
@@ -4441,12 +4460,12 @@
         <v>79</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>80</v>
@@ -4458,12 +4477,12 @@
         <v>81</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>82</v>
@@ -4472,15 +4491,15 @@
         <v>37</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>83</v>
@@ -4489,15 +4508,15 @@
         <v>37</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>84</v>
@@ -4506,15 +4525,15 @@
         <v>37</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>85</v>
@@ -4523,15 +4542,15 @@
         <v>37</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>86</v>
@@ -4540,15 +4559,15 @@
         <v>37</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>87</v>
@@ -4557,15 +4576,15 @@
         <v>37</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>88</v>
@@ -4574,15 +4593,15 @@
         <v>37</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>89</v>
@@ -4591,15 +4610,15 @@
         <v>37</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>90</v>
@@ -4608,15 +4627,15 @@
         <v>37</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>91</v>
@@ -4625,15 +4644,15 @@
         <v>37</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>92</v>
@@ -4642,15 +4661,15 @@
         <v>37</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>93</v>
@@ -4659,15 +4678,15 @@
         <v>37</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>94</v>
@@ -4676,15 +4695,15 @@
         <v>37</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>95</v>
@@ -4693,15 +4712,15 @@
         <v>37</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>96</v>
@@ -4710,15 +4729,15 @@
         <v>37</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>97</v>
@@ -4727,13 +4746,13 @@
         <v>37</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>98</v>
       </c>
@@ -4744,13 +4763,13 @@
         <v>37</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>100</v>
       </c>
@@ -4761,13 +4780,13 @@
         <v>37</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>102</v>
       </c>
@@ -4778,13 +4797,13 @@
         <v>37</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>104</v>
       </c>
@@ -4795,13 +4814,13 @@
         <v>37</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>106</v>
       </c>
@@ -4812,13 +4831,13 @@
         <v>37</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>108</v>
       </c>
@@ -4829,13 +4848,13 @@
         <v>37</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>110</v>
       </c>
@@ -4846,13 +4865,13 @@
         <v>37</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>112</v>
       </c>
@@ -4863,13 +4882,13 @@
         <v>37</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
         <v>114</v>
       </c>
@@ -4880,13 +4899,13 @@
         <v>37</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>116</v>
       </c>
@@ -4897,13 +4916,13 @@
         <v>37</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
         <v>118</v>
       </c>
@@ -4914,13 +4933,13 @@
         <v>37</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>120</v>
       </c>
@@ -4931,13 +4950,13 @@
         <v>37</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
         <v>122</v>
       </c>
@@ -4948,13 +4967,13 @@
         <v>37</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="3" t="s">
         <v>124</v>
       </c>
@@ -4965,13 +4984,13 @@
         <v>37</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>126</v>
       </c>
@@ -4982,13 +5001,13 @@
         <v>37</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="3" t="s">
         <v>128</v>
       </c>
@@ -4999,13 +5018,13 @@
         <v>37</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
         <v>130</v>
       </c>
@@ -5016,13 +5035,13 @@
         <v>37</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>132</v>
       </c>
@@ -5033,13 +5052,13 @@
         <v>37</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
         <v>134</v>
       </c>
@@ -5050,13 +5069,13 @@
         <v>37</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
         <v>136</v>
       </c>
@@ -5067,13 +5086,13 @@
         <v>37</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>138</v>
       </c>
@@ -5084,13 +5103,13 @@
         <v>37</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
         <v>140</v>
       </c>
@@ -5101,13 +5120,13 @@
         <v>37</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
         <v>142</v>
       </c>
@@ -5118,13 +5137,13 @@
         <v>37</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>144</v>
       </c>
@@ -5135,1203 +5154,1194 @@
         <v>37</v>
       </c>
       <c r="F136" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F140" s="9"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="G144" s="7" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F137" s="9" t="s">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="G137" s="7" t="s">
+      <c r="D145" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F138" s="9" t="s">
+      <c r="G145" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="G138" s="7" t="s">
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F139" s="9" t="s">
+      <c r="E146" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G146" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="3" t="s">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="E147" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="3" t="s">
+      <c r="E148" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="E149" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="3" t="s">
+      <c r="E150" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="E151" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D143" s="3" t="s">
+      <c r="E152" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D144" s="3" t="s">
+      <c r="E153" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B145" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D145" s="3" t="s">
+      <c r="E154" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B146" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D146" s="3" t="s">
+      <c r="E155" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B156" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D147" s="3" t="s">
+      <c r="E156" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B148" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D148" s="3" t="s">
+      <c r="E157" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B149" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D149" s="3" t="s">
+      <c r="E158" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B150" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D150" s="3" t="s">
+      <c r="E159" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B151" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D151" s="3" t="s">
+      <c r="E160" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B152" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D152" s="3" t="s">
+      <c r="E161" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D153" s="3" t="s">
+      <c r="E162" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="E163" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B155" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D155" s="3" t="s">
+      <c r="E164" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D156" s="3" t="s">
+      <c r="E165" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B166" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B157" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D157" s="3" t="s">
+      <c r="E166" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D158" s="3" t="s">
+      <c r="E167" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B159" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D159" s="3" t="s">
+      <c r="E168" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B160" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D160" s="3" t="s">
+      <c r="E169" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B161" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="E170" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B171" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D171" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B162" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D162" s="3" t="s">
+      <c r="E171" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B172" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D172" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B163" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D163" s="3" t="s">
+      <c r="E172" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D173" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B164" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="E173" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B174" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B175" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B176" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F177" s="6"/>
+      <c r="G177" s="7"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B178" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D178" t="s">
         <v>179</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B165" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D165" s="3" t="s">
+      <c r="E178" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D179" t="s">
         <v>180</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B166" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="E179" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D180" t="s">
         <v>181</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B167" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D167" s="3" t="s">
+      <c r="E180" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B181" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D181" t="s">
         <v>182</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D168" s="3" t="s">
+      <c r="E181" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B182" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D182" t="s">
         <v>183</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F168" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B169" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D169" s="3" t="s">
+      <c r="E182" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B183" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D183" t="s">
         <v>184</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D170" s="3" t="s">
+      <c r="E183" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B184" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D184" t="s">
         <v>185</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D171" s="3" t="s">
+      <c r="E184" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B185" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D185" t="s">
         <v>186</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B172" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D172" s="3" t="s">
+      <c r="E185" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B186" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D186" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F172" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B173" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D173" s="8" t="s">
+      <c r="E186" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B187" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D187" t="s">
         <v>188</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D174" s="8" t="s">
+      <c r="E187" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B188" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D188" t="s">
         <v>189</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B175" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="D175" s="8" t="s">
+      <c r="E188" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B189" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D189" t="s">
         <v>190</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B176" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="E189" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B190" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D190" t="s">
         <v>191</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B177" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="E190" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B191" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D191" t="s">
         <v>192</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B178" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="E191" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D192" t="s">
         <v>193</v>
       </c>
-      <c r="E178" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="E192" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B194" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D196" t="s">
         <v>194</v>
       </c>
-      <c r="E179" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B180" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="E196" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D197" t="s">
         <v>195</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="E197" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D198" t="s">
         <v>196</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B182" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="E198" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B199" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D199" t="s">
         <v>197</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B183" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="E199" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B200" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D200" t="s">
         <v>198</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="E200" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B201" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D201" t="s">
         <v>199</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="E201" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B202" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D202" t="s">
         <v>200</v>
       </c>
-      <c r="E185" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B186" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="E202" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B203" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D203" t="s">
         <v>201</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="E203" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D204" t="s">
         <v>202</v>
       </c>
-      <c r="E187" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B188" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D188" t="s">
-        <v>203</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B189" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="D189" t="s">
-        <v>204</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B190" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D190" t="s">
-        <v>205</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F190" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B191" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F191" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B192" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F192" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B193" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B194" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D194" t="s">
-        <v>206</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F194" s="6" t="s">
+      <c r="E204" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F204" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="G194" s="7" t="s">
+      <c r="G204" s="7" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B195" s="3" t="s">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D195" t="s">
-        <v>207</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F195" s="6" t="s">
+      <c r="D205" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F205" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="G195" s="7" t="s">
+      <c r="G205" s="7" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B196" s="3" t="s">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D196" t="s">
-        <v>208</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F196" s="6" t="s">
+      <c r="D206" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F206" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="G196" s="7" t="s">
+      <c r="G206" s="7" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B197" s="3" t="s">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B207" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D197" t="s">
-        <v>209</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F197" s="6" t="s">
+      <c r="D207" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F207" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="G197" s="7" t="s">
+      <c r="G207" s="7" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B198" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D198" t="s">
-        <v>210</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B199" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D199" t="s">
-        <v>211</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B200" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="D200" t="s">
-        <v>212</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="G200" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B201" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="D201" t="s">
-        <v>213</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B202" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D202" t="s">
-        <v>214</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B203" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B204" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B205" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B207" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
         <v>697</v>
       </c>
@@ -6339,7 +6349,7 @@
         <v>698</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>699</v>
@@ -6348,21 +6358,55 @@
         <v>700</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B210" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="3" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>702</v>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B214" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB23C8DB-EE16-40E2-9513-1E235822CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE60F04-9C0B-4BDC-A346-85A57A6A0EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="795">
   <si>
     <t>##var</t>
   </si>
@@ -2369,6 +2369,232 @@
   </si>
   <si>
     <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_CrtAndHigh.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Fire_Fire1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Fire_Fire2</t>
+  </si>
+  <si>
+    <t>ResEffect_Fire_Fire3</t>
+  </si>
+  <si>
+    <t>火图腾开火1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火图腾开火2</t>
+  </si>
+  <si>
+    <t>火图腾开火3</t>
+  </si>
+  <si>
+    <t>Fire_Fire1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_Fire2.prefab</t>
+  </si>
+  <si>
+    <t>Fire_Fire3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Fire_Fire1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Fire_Fire2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Fire_Fire3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_HitFire1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_HitFire2</t>
+  </si>
+  <si>
+    <t>ResEffect_HitFire3</t>
+  </si>
+  <si>
+    <t>火图腾命中1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火图腾命中2</t>
+  </si>
+  <si>
+    <t>火图腾命中3</t>
+  </si>
+  <si>
+    <t>Fire_Hit1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_Hit2.prefab</t>
+  </si>
+  <si>
+    <t>Fire_Hit3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Fire_Hit1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Fire_Hit2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Fire_Hit3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_HitMagicBall1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_HitMagicBall2</t>
+  </si>
+  <si>
+    <t>ResEffect_HitMagicBall3</t>
+  </si>
+  <si>
+    <t>MagicBall_Hit1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicBall_Hit2.prefab</t>
+  </si>
+  <si>
+    <t>MagicBall_Hit3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/MagicBall_Hit1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/MagicBall_Hit2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/MagicBall_Hit3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Heal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-治疗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Invisible_Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-隐身-隐身效果buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Weaken</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-弱化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_TowerFire_Hit1</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerFire_Hit2</t>
+  </si>
+  <si>
+    <t>TowerFire_Hit2.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerFire_Hit3</t>
+  </si>
+  <si>
+    <t>TowerFire_Hit3.prefab</t>
+  </si>
+  <si>
+    <t>水晶塔命中1</t>
+  </si>
+  <si>
+    <t>水晶塔命中2</t>
+  </si>
+  <si>
+    <t>水晶塔命中3</t>
+  </si>
+  <si>
+    <t>TowerFire_Hit1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/TowerFire_Hit1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/TowerFire_Hit2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/TowerFire_Hit3.prefab</t>
+  </si>
+  <si>
+    <t>魔像开火1</t>
+  </si>
+  <si>
+    <t>魔像开火2</t>
+  </si>
+  <si>
+    <t>魔像开火3</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerGolem1</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerGolem2</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerGolem3</t>
+  </si>
+  <si>
+    <t>FireTowerGolem1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireTowerGolem2.prefab</t>
+  </si>
+  <si>
+    <t>FireTowerGolem3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGolem1.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGolem2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGolem3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_WeakenSmall</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-zishen弱化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStunSmall.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStunSmall.prefab</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2503,7 +2729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -2520,6 +2746,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2869,26 +3098,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y220"/>
+  <dimension ref="A1:Y243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="62.25" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +3154,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2954,7 +3183,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2991,7 +3220,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3022,7 +3251,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3059,162 +3288,111 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>231</v>
+        <v>722</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>228</v>
@@ -3229,145 +3407,145 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>236</v>
@@ -3382,29 +3560,46 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>239</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>623</v>
+        <v>228</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>36</v>
@@ -3412,50 +3607,50 @@
       <c r="F28" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>240</v>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>623</v>
+        <v>236</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>623</v>
+        <v>229</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>242</v>
+        <v>231</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>623</v>
+        <v>228</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>36</v>
@@ -3467,179 +3662,162 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G41" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="11" t="s">
         <v>624</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
-        <v>631</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>632</v>
@@ -3654,2947 +3832,3324 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>657</v>
-      </c>
-      <c r="D53" t="s">
-        <v>202</v>
+        <v>232</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D54"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>250</v>
+        <v>16</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
+        <v>638</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>208</v>
+        <v>639</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>657</v>
+      </c>
+      <c r="D60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D61"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D63" t="s">
         <v>653</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F77" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="E81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="E82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="E83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="E84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="E87" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="E88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="E89" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F83" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="E91" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="E92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="E93" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F87" s="3" t="s">
+      <c r="E94" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="E95" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="E96" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F90" s="3" t="s">
+      <c r="E97" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G97" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="E98" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="E99" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="E100" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="E101" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95" s="3" t="s">
+      <c r="E102" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="E103" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="E104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G104" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E105" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="E106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="E107" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="E108" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="E109" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G109" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="3" t="s">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F103" s="3" t="s">
+      <c r="E110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="3" t="s">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="G111" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="3" t="s">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="E112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G112" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="3" t="s">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="E113" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="3" t="s">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="E114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="G114" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="3" t="s">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="E115" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="G115" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="3" t="s">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F109" s="3" t="s">
+      <c r="E116" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="3" t="s">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="E117" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="E118" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F112" s="3" t="s">
+      <c r="E119" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F113" s="3" t="s">
+      <c r="E120" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G120" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F114" s="3" t="s">
+      <c r="E121" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="3" t="s">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="E122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G122" s="7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="3" t="s">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F116" s="3" t="s">
+      <c r="E123" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G123" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="3" t="s">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F117" s="3" t="s">
+      <c r="E124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="3" t="s">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="E126" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="G126" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="3" t="s">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F119" s="9" t="s">
+      <c r="E127" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G127" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="3" t="s">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F120" s="9" t="s">
+      <c r="E128" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="G128" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="3" t="s">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F121" s="9" t="s">
+      <c r="E129" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="G129" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="3" t="s">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F122" s="9" t="s">
+      <c r="E130" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G130" s="7" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="3" t="s">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F123" s="9" t="s">
+      <c r="E131" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G131" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="3" t="s">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F124" s="9" t="s">
+      <c r="E132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="G132" s="7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="3" t="s">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F125" s="9" t="s">
+      <c r="E133" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="G133" s="7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" s="3" t="s">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F126" s="9" t="s">
+      <c r="E134" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" s="3" t="s">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F127" s="9" t="s">
+      <c r="E135" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="G135" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" s="3" t="s">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F128" s="9" t="s">
+      <c r="E136" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="G136" s="7" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="3" t="s">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F129" s="9" t="s">
+      <c r="E137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="G137" s="7" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="3" t="s">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F130" s="9" t="s">
+      <c r="E138" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="G130" s="7" t="s">
+      <c r="G138" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="3" t="s">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F131" s="9" t="s">
+      <c r="E139" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="G131" s="7" t="s">
+      <c r="G139" s="7" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="3" t="s">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F132" s="9" t="s">
+      <c r="E140" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="G140" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="3" t="s">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F133" s="9" t="s">
+      <c r="E141" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="G141" s="7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="3" t="s">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" s="9" t="s">
+      <c r="E142" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="G142" s="7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="3" t="s">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F135" s="9" t="s">
+      <c r="E143" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="G143" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="3" t="s">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F136" s="9" t="s">
+      <c r="E144" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="G144" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="3" t="s">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F137" s="9" t="s">
+      <c r="E145" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="G137" s="7" t="s">
+      <c r="G145" s="7" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="3" t="s">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F138" s="9" t="s">
+      <c r="E146" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="G146" s="7" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="3" t="s">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F139" s="9" t="s">
+      <c r="E147" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G147" s="7" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="3" t="s">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F140" s="9" t="s">
+      <c r="E148" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="G148" s="7" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="3" t="s">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F141" s="9" t="s">
+      <c r="E149" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="G149" s="7" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="3" t="s">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F142" s="9" t="s">
+      <c r="E150" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="G150" s="7" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B143" s="12" t="s">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F143" s="9" t="s">
+      <c r="E151" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="G143" s="7" t="s">
+      <c r="G151" s="7" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="12" t="s">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D152" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F144" s="9" t="s">
+      <c r="E152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="G144" s="7" t="s">
+      <c r="G152" s="7" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B145" s="12" t="s">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D153" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F145" s="9" t="s">
+      <c r="E153" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="G153" s="7" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F146" s="9"/>
-      <c r="G146" s="7"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="3" t="s">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B156" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B157" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B159" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F160" s="9"/>
+      <c r="G160" s="7"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F147" s="9" t="s">
+      <c r="E161" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G147" s="7" t="s">
+      <c r="G161" s="7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B148" s="3" t="s">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D162" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F148" s="9" t="s">
+      <c r="E162" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="G148" s="7" t="s">
+      <c r="G162" s="7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B149" s="3" t="s">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F149" s="9" t="s">
+      <c r="E163" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F163" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G149" s="7" t="s">
+      <c r="G163" s="7" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B150" s="3" t="s">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F150" s="9" t="s">
+      <c r="E164" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F164" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G150" s="7" t="s">
+      <c r="G164" s="7" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B151" s="3" t="s">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F151" s="9" t="s">
+      <c r="E165" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="G151" s="7" t="s">
+      <c r="G165" s="7" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B152" s="3" t="s">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B166" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F152" s="9" t="s">
+      <c r="E166" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F166" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="G152" s="7" t="s">
+      <c r="G166" s="7" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="3" t="s">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F153" s="9" t="s">
+      <c r="E167" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F167" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="G167" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="3" t="s">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F154" s="9" t="s">
+      <c r="E168" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F168" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="G168" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B155" s="3" t="s">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F155" s="9" t="s">
+      <c r="E169" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F169" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="G155" s="7" t="s">
+      <c r="G169" s="7" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="3" t="s">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F156" s="9" t="s">
+      <c r="E170" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F170" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="G156" s="7" t="s">
+      <c r="G170" s="7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B157" s="3" t="s">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B171" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F157" s="9" t="s">
+      <c r="E171" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F171" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="G157" s="7" t="s">
+      <c r="G171" s="7" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="3" t="s">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B172" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F158" s="9" t="s">
+      <c r="E172" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F172" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="G172" s="7" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B159" s="3" t="s">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F159" s="9" t="s">
+      <c r="E173" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F173" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="G173" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B160" s="3" t="s">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B174" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F160" s="9" t="s">
+      <c r="E174" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F174" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="G174" s="7" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B161" s="3" t="s">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B175" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F161" s="9" t="s">
+      <c r="E175" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="G175" s="7" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B162" s="3" t="s">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B176" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F162" s="9" t="s">
+      <c r="E176" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F176" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="G176" s="7" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B163" s="3" t="s">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F163" s="9" t="s">
+      <c r="E177" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="G163" s="7" t="s">
+      <c r="G177" s="7" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B164" s="3" t="s">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B178" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F164" s="9" t="s">
+      <c r="E178" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="G164" s="7" t="s">
+      <c r="G178" s="7" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B165" s="3" t="s">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F165" s="9" t="s">
+      <c r="E179" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="G165" s="7" t="s">
+      <c r="G179" s="7" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B166" s="3" t="s">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F166" s="9" t="s">
+      <c r="E180" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G166" s="7" t="s">
+      <c r="G180" s="7" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B167" s="3" t="s">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B181" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F167" s="9" t="s">
+      <c r="E181" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="G167" s="7" t="s">
+      <c r="G181" s="7" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B182" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D182" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F168" s="9" t="s">
+      <c r="E182" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F182" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="G168" s="7" t="s">
+      <c r="G182" s="7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B169" s="3" t="s">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B183" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D183" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F169" s="9" t="s">
+      <c r="E183" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F183" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="G183" s="7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="3" t="s">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B184" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F170" s="9" t="s">
+      <c r="E184" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="G184" s="7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="3" t="s">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B185" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F171" s="9" t="s">
+      <c r="E185" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="G171" s="7" t="s">
+      <c r="G185" s="7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B172" s="3" t="s">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B186" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F172" s="9" t="s">
+      <c r="E186" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="G186" s="7" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B173" s="3" t="s">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B187" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F173" s="9" t="s">
+      <c r="E187" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F187" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="G173" s="7" t="s">
+      <c r="G187" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B188" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F174" s="9" t="s">
+      <c r="E188" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F188" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="G188" s="7" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B175" s="3" t="s">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B189" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F175" s="9" t="s">
+      <c r="E189" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F189" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="G175" s="7" t="s">
+      <c r="G189" s="7" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B176" s="3" t="s">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B190" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D190" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F176" s="9" t="s">
+      <c r="E190" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F190" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="G190" s="7" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B177" s="3" t="s">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B191" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D191" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F177" s="6" t="s">
+      <c r="E191" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F191" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="G177" s="7" t="s">
+      <c r="G191" s="7" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B178" s="3" t="s">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D192" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E178" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F178" s="6" t="s">
+      <c r="E192" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F192" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="G178" s="7" t="s">
+      <c r="G192" s="7" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="3" t="s">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D193" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E179" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F179" s="6" t="s">
+      <c r="E193" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F193" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="G179" s="7" t="s">
+      <c r="G193" s="7" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B180" s="12" t="s">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B194" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D194" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F180" s="6" t="s">
+      <c r="E194" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F194" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="G180" s="7" t="s">
+      <c r="G194" s="7" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="12" t="s">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D195" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F181" s="6" t="s">
+      <c r="E195" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="G181" s="7" t="s">
+      <c r="G195" s="7" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B182" s="12" t="s">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="D182" s="8" t="s">
+      <c r="D196" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F182" s="6" t="s">
+      <c r="E196" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F196" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="G182" s="7" t="s">
+      <c r="G196" s="7" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F183" s="6"/>
-      <c r="G183" s="7"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B184" s="3" t="s">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B197" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B198" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B199" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B200" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B201" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B202" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B203" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F206" s="6"/>
+      <c r="G206" s="7"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B207" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D207" t="s">
         <v>178</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F184" s="6" t="s">
+      <c r="E207" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F207" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G184" s="7" t="s">
+      <c r="G207" s="7" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B185" s="3" t="s">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B208" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D208" t="s">
         <v>179</v>
       </c>
-      <c r="E185" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F185" s="6" t="s">
+      <c r="E208" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F208" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="G185" s="7" t="s">
+      <c r="G208" s="7" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B186" s="3" t="s">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B209" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D209" t="s">
         <v>180</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F186" s="6" t="s">
+      <c r="E209" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F209" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="G186" s="7" t="s">
+      <c r="G209" s="7" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="3" t="s">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B210" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D210" t="s">
         <v>181</v>
       </c>
-      <c r="E187" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F187" s="6" t="s">
+      <c r="E210" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F210" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="G187" s="7" t="s">
+      <c r="G210" s="7" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B188" s="3" t="s">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B211" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D211" t="s">
         <v>182</v>
       </c>
-      <c r="E188" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F188" s="6" t="s">
+      <c r="E211" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F211" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G188" s="7" t="s">
+      <c r="G211" s="7" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B189" s="3" t="s">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B212" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D212" t="s">
         <v>183</v>
       </c>
-      <c r="E189" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F189" s="6" t="s">
+      <c r="E212" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F212" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="G189" s="7" t="s">
+      <c r="G212" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B190" s="3" t="s">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B213" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D213" t="s">
         <v>184</v>
       </c>
-      <c r="E190" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F190" s="6" t="s">
+      <c r="E213" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F213" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="G190" s="7" t="s">
+      <c r="G213" s="7" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B191" s="3" t="s">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B214" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D214" t="s">
         <v>185</v>
       </c>
-      <c r="E191" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F191" s="6" t="s">
+      <c r="E214" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F214" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="G191" s="7" t="s">
+      <c r="G214" s="7" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B192" s="3" t="s">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B215" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D215" t="s">
         <v>186</v>
       </c>
-      <c r="E192" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F192" s="6" t="s">
+      <c r="E215" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F215" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G192" s="7" t="s">
+      <c r="G215" s="7" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B193" s="3" t="s">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B216" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D216" t="s">
         <v>187</v>
       </c>
-      <c r="E193" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F193" s="6" t="s">
+      <c r="E216" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F216" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="G193" s="7" t="s">
+      <c r="G216" s="7" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B194" s="3" t="s">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B217" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D217" t="s">
         <v>188</v>
       </c>
-      <c r="E194" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F194" s="6" t="s">
+      <c r="E217" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F217" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="G194" s="7" t="s">
+      <c r="G217" s="7" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B195" s="3" t="s">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B218" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D218" t="s">
         <v>189</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F195" s="6" t="s">
+      <c r="E218" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F218" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="G195" s="7" t="s">
+      <c r="G218" s="7" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B196" s="3" t="s">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B219" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D219" t="s">
         <v>190</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F196" s="6" t="s">
+      <c r="E219" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F219" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G196" s="7" t="s">
+      <c r="G219" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B197" s="3" t="s">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B220" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D220" t="s">
         <v>191</v>
       </c>
-      <c r="E197" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F197" s="6" t="s">
+      <c r="E220" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F220" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="G197" s="7" t="s">
+      <c r="G220" s="7" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B198" s="3" t="s">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B221" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D221" t="s">
         <v>192</v>
       </c>
-      <c r="E198" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F198" s="6" t="s">
+      <c r="E221" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F221" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="G198" s="7" t="s">
+      <c r="G221" s="7" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B199" s="3" t="s">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B222" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D222" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F199" s="6" t="s">
+      <c r="E222" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F222" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="G199" s="7" t="s">
+      <c r="G222" s="7" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B200" s="3" t="s">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B223" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D223" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F200" s="6" t="s">
+      <c r="E223" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F223" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="G200" s="7" t="s">
+      <c r="G223" s="7" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B201" s="3" t="s">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B224" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D224" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E201" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F201" s="6" t="s">
+      <c r="E224" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F224" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="G201" s="7" t="s">
+      <c r="G224" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B202" s="3" t="s">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B225" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D225" t="s">
         <v>193</v>
       </c>
-      <c r="E202" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F202" s="6" t="s">
+      <c r="E225" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F225" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="G202" s="7" t="s">
+      <c r="G225" s="7" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B203" s="3" t="s">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B226" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D226" t="s">
         <v>194</v>
       </c>
-      <c r="E203" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F203" s="6" t="s">
+      <c r="E226" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F226" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="G203" s="7" t="s">
+      <c r="G226" s="7" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B204" s="3" t="s">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B227" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D227" t="s">
         <v>195</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F204" s="6" t="s">
+      <c r="E227" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F227" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="G204" s="7" t="s">
+      <c r="G227" s="7" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B205" s="3" t="s">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B228" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D228" t="s">
         <v>196</v>
       </c>
-      <c r="E205" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F205" s="6" t="s">
+      <c r="E228" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F228" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="G205" s="7" t="s">
+      <c r="G228" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B206" s="3" t="s">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B229" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D229" t="s">
         <v>197</v>
       </c>
-      <c r="E206" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F206" s="6" t="s">
+      <c r="E229" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F229" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="G206" s="7" t="s">
+      <c r="G229" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B207" s="3" t="s">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B230" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D230" t="s">
         <v>198</v>
       </c>
-      <c r="E207" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F207" s="6" t="s">
+      <c r="E230" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F230" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="G207" s="7" t="s">
+      <c r="G230" s="7" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B208" s="3" t="s">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B231" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D231" t="s">
         <v>199</v>
       </c>
-      <c r="E208" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F208" s="6" t="s">
+      <c r="E231" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F231" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="G208" s="7" t="s">
+      <c r="G231" s="7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B209" s="3" t="s">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B232" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D232" t="s">
         <v>200</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F209" s="6" t="s">
+      <c r="E232" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F232" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="G209" s="7" t="s">
+      <c r="G232" s="7" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B210" s="3" t="s">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B233" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D233" t="s">
         <v>201</v>
       </c>
-      <c r="E210" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F210" s="6" t="s">
+      <c r="E233" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F233" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="G210" s="7" t="s">
+      <c r="G233" s="7" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B211" s="3" t="s">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D211" s="8" t="s">
+      <c r="D234" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E211" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F211" s="6" t="s">
+      <c r="E234" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F234" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="G211" s="7" t="s">
+      <c r="G234" s="7" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B212" s="3" t="s">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B235" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D235" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E212" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F212" s="6" t="s">
+      <c r="E235" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F235" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="G212" s="7" t="s">
+      <c r="G235" s="7" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B213" s="3" t="s">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B236" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D236" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E213" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F213" s="6" t="s">
+      <c r="E236" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F236" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="G213" s="7" t="s">
+      <c r="G236" s="7" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B214" s="3" t="s">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B237" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D237" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="E214" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F214" s="6" t="s">
+      <c r="E237" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F237" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="G214" s="7" t="s">
+      <c r="G237" s="7" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B216" s="3" t="s">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B239" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D216" s="8" t="s">
+      <c r="D239" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E239" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="F239" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="G216" s="7" t="s">
+      <c r="G239" s="7" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B217" s="3" t="s">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B240" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D240" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E240" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F217" s="6" t="s">
+      <c r="F240" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="G217" s="7" t="s">
+      <c r="G240" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B220" s="3" t="s">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="D243" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E243" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F220" s="6" t="s">
+      <c r="F243" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="G220" s="7" t="s">
+      <c r="G243" s="7" t="s">
         <v>673</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B43">
+  <conditionalFormatting sqref="B50">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B51">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B52">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+  <conditionalFormatting sqref="B54">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="B55">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE60F04-9C0B-4BDC-A346-85A57A6A0EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB0A2BF-855D-4549-B253-7F27D1751C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="817">
   <si>
     <t>##var</t>
   </si>
@@ -2595,6 +2595,84 @@
   </si>
   <si>
     <t>SkillStunSmall.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BaseDie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseDie.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/BaseDie.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_ZhongZi1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Dan2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>种子1治疗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子2治疗</t>
+  </si>
+  <si>
+    <t>种子3治疗</t>
+  </si>
+  <si>
+    <t>蛋2弱化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋3弱化</t>
+  </si>
+  <si>
+    <t>SeedHeal2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/SeedHeal2.prefab</t>
+  </si>
+  <si>
+    <t>SeedHeal3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/SeedHeal3.prefab</t>
+  </si>
+  <si>
+    <t>SkillStun2.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStun3.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun2.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun3.prefab</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3098,11 +3176,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y243"/>
+  <dimension ref="A1:Y249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3356,162 +3434,162 @@
         <v>793</v>
       </c>
     </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>810</v>
+      </c>
+    </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>720</v>
+      <c r="B13" s="13" t="s">
+        <v>801</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>721</v>
+        <v>806</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>723</v>
+      <c r="F14" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>211</v>
+      <c r="B15" s="13" t="s">
+        <v>803</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>228</v>
+        <v>808</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>246</v>
+        <v>814</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>720</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>228</v>
+        <v>721</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>230</v>
+        <v>722</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>246</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>228</v>
@@ -3528,75 +3606,75 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>228</v>
@@ -3613,58 +3691,58 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>236</v>
@@ -3681,44 +3759,61 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
-        <v>239</v>
+      <c r="B35" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>623</v>
+        <v>229</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>246</v>
+        <v>231</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>240</v>
+      <c r="B36" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>623</v>
+        <v>228</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>36</v>
@@ -3731,59 +3826,42 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
-        <v>241</v>
+      <c r="B37" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>623</v>
+        <v>236</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>246</v>
+        <v>232</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="s">
-        <v>242</v>
+      <c r="B38" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>623</v>
+        <v>235</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>623</v>
@@ -3794,13 +3872,13 @@
       <c r="F40" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>623</v>
@@ -3811,98 +3889,98 @@
       <c r="F41" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>624</v>
+        <v>241</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>625</v>
+        <v>242</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>626</v>
+        <v>243</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>627</v>
+        <v>244</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>628</v>
+        <v>245</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>632</v>
@@ -3919,7 +3997,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>632</v>
@@ -3936,7 +4014,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>632</v>
@@ -3953,92 +4031,92 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>639</v>
@@ -4055,3101 +4133,3203 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>649</v>
+        <v>232</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>650</v>
+        <v>232</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>651</v>
+        <v>232</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>657</v>
-      </c>
-      <c r="D60" t="s">
-        <v>202</v>
+      <c r="B60" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>659</v>
+        <v>16</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D61"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="7"/>
+      <c r="B61" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
-        <v>250</v>
+      <c r="B62" s="11" t="s">
+        <v>644</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>208</v>
+        <v>641</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="D63" t="s">
-        <v>653</v>
+        <v>645</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>642</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>252</v>
+        <v>648</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>15</v>
+      <c r="B65" t="s">
+        <v>657</v>
+      </c>
+      <c r="D65" t="s">
+        <v>202</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>254</v>
+        <v>659</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="D66"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>702</v>
+        <v>796</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>707</v>
+        <v>16</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>703</v>
+        <v>250</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>710</v>
+        <v>208</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>707</v>
+        <v>16</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>712</v>
+        <v>209</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>716</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>708</v>
+      <c r="B69" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="D69" t="s">
+        <v>653</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>707</v>
+        <v>16</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>713</v>
+        <v>654</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>717</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>724</v>
+        <v>251</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>725</v>
+        <v>208</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>707</v>
+        <v>16</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>726</v>
+        <v>210</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>727</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>705</v>
+        <v>253</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>706</v>
+        <v>15</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>707</v>
+        <v>16</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>714</v>
+        <v>17</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>718</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>707</v>
+        <v>16</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>719</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>258</v>
+        <v>702</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>19</v>
+        <v>709</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>16</v>
+        <v>707</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>20</v>
+        <v>711</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>259</v>
+        <v>715</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
-        <v>260</v>
+        <v>703</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>16</v>
+        <v>707</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>22</v>
+        <v>712</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>261</v>
+        <v>716</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
-        <v>262</v>
+        <v>704</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>23</v>
+        <v>708</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>16</v>
+        <v>707</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>24</v>
+        <v>713</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>263</v>
+        <v>717</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>264</v>
+        <v>724</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>25</v>
+        <v>725</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>16</v>
+        <v>707</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>26</v>
+        <v>726</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>265</v>
+        <v>727</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>266</v>
+        <v>705</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>27</v>
+        <v>706</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>16</v>
+        <v>707</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>28</v>
+        <v>714</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>267</v>
+        <v>718</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>30</v>
+        <v>707</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>269</v>
+        <v>719</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>295</v>
+        <v>39</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>301</v>
+        <v>43</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>304</v>
+        <v>46</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>64</v>
+        <v>310</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>661</v>
+        <v>318</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>660</v>
+        <v>57</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>662</v>
+        <v>58</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>663</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>340</v>
+        <v>661</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>80</v>
+        <v>662</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>341</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>343</v>
+        <v>70</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>346</v>
+        <v>72</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G125" s="7"/>
+      <c r="B125" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
-        <v>97</v>
+        <v>375</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>388</v>
+      <c r="F127" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="3" t="s">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F128" s="9" t="s">
-        <v>390</v>
+      <c r="F128" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
-        <v>101</v>
+        <v>381</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>392</v>
+      <c r="F129" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F130" s="9" t="s">
-        <v>394</v>
+      <c r="F130" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>397</v>
-      </c>
+      <c r="G131" s="7"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F132" s="9" t="s">
-        <v>398</v>
+      <c r="F132" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>399</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B156" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F150" s="9" t="s">
+      <c r="E156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="G150" s="7" t="s">
+      <c r="G156" s="7" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B151" s="12" t="s">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B157" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D157" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F151" s="9" t="s">
+      <c r="E157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="G151" s="7" t="s">
+      <c r="G157" s="7" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B152" s="12" t="s">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F152" s="9" t="s">
+      <c r="E158" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="G152" s="7" t="s">
+      <c r="G158" s="7" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B153" s="12" t="s">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B159" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D159" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F153" s="9" t="s">
+      <c r="E159" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="G159" s="7" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B154" s="12" t="s">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B160" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D160" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F154" s="9" t="s">
+      <c r="E160" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F160" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="G160" s="7" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B155" s="12" t="s">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D161" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F155" s="9" t="s">
+      <c r="E161" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="G155" s="7" t="s">
+      <c r="G161" s="7" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B156" s="12" t="s">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D162" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F156" s="9" t="s">
+      <c r="E162" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="G156" s="7" t="s">
+      <c r="G162" s="7" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B157" s="8" t="s">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D163" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F157" s="9" t="s">
+      <c r="E163" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G157" s="7" t="s">
+      <c r="G163" s="7" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B158" s="8" t="s">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D164" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F158" s="9" t="s">
+      <c r="E164" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F164" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="G164" s="7" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B159" s="8" t="s">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D165" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F159" s="9" t="s">
+      <c r="E165" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="G165" s="7" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F160" s="9"/>
-      <c r="G160" s="7"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B161" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B162" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B163" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B164" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B165" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B166" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>453</v>
-      </c>
+      <c r="F166" s="9"/>
+      <c r="G166" s="7"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="3" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="3" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="3" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="3" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="3" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B188" s="3" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="3" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>175</v>
+        <v>508</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F191" s="6" t="s">
-        <v>527</v>
+      <c r="F191" s="9" t="s">
+        <v>509</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>176</v>
+        <v>511</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F192" s="6" t="s">
-        <v>530</v>
+      <c r="F192" s="9" t="s">
+        <v>512</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B194" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B199" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D199" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E193" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F193" s="6" t="s">
+      <c r="E199" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="G193" s="7" t="s">
+      <c r="G199" s="7" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B194" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B195" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="G195" s="7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B196" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B197" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F197" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B198" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B199" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="12" t="s">
-        <v>752</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>163</v>
+        <v>699</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>683</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>755</v>
+        <v>686</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>758</v>
+        <v>689</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>164</v>
+        <v>700</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>684</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>756</v>
+        <v>687</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>759</v>
+        <v>690</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B203" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B204" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B206" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B207" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B208" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D208" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E202" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F202" s="6" t="s">
+      <c r="E208" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F208" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="G202" s="7" t="s">
+      <c r="G208" s="7" t="s">
         <v>760</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B203" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B204" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B205" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F206" s="6"/>
-      <c r="G206" s="7"/>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B207" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D207" t="s">
-        <v>178</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B208" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D208" t="s">
-        <v>179</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B209" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D209" t="s">
-        <v>180</v>
+        <v>767</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>772</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>542</v>
+        <v>36</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>775</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>543</v>
+        <v>776</v>
       </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D210" t="s">
-        <v>181</v>
+        <v>768</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>773</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>545</v>
+        <v>36</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>546</v>
+        <v>777</v>
       </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D211" t="s">
-        <v>182</v>
+        <v>770</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>774</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>548</v>
+        <v>36</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>549</v>
+        <v>778</v>
       </c>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B212" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D212" t="s">
-        <v>183</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="G212" s="7" t="s">
-        <v>552</v>
-      </c>
+      <c r="F212" s="6"/>
+      <c r="G212" s="7"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" s="3" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="D213" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="3" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="D214" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" s="3" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="D215" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="3" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="D216" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="3" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="D217" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" s="3" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="D218" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" s="3" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D219" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>234</v>
+        <v>554</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>249</v>
+        <v>555</v>
       </c>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" s="3" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D220" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" s="3" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D221" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>205</v>
+        <v>562</v>
+      </c>
+      <c r="D222" t="s">
+        <v>187</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>206</v>
+        <v>565</v>
+      </c>
+      <c r="D223" t="s">
+        <v>188</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>207</v>
+        <v>568</v>
+      </c>
+      <c r="D224" t="s">
+        <v>189</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="3" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="D225" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>588</v>
+        <v>234</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>589</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="3" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="D226" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="3" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D227" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D228" t="s">
-        <v>196</v>
+        <v>578</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D229" t="s">
-        <v>197</v>
+        <v>581</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="D230" t="s">
-        <v>198</v>
+        <v>584</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="3" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D231" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="3" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="D232" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="3" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="D233" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>237</v>
+        <v>596</v>
+      </c>
+      <c r="D234" t="s">
+        <v>196</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>237</v>
+        <v>599</v>
+      </c>
+      <c r="D235" t="s">
+        <v>197</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>237</v>
+        <v>602</v>
+      </c>
+      <c r="D236" t="s">
+        <v>198</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>693</v>
+        <v>605</v>
+      </c>
+      <c r="D237" t="s">
+        <v>199</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>695</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B238" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D238" t="s">
+        <v>200</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>667</v>
+        <v>611</v>
+      </c>
+      <c r="D239" t="s">
+        <v>201</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="3" t="s">
-        <v>668</v>
+        <v>614</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>669</v>
+        <v>237</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>670</v>
+        <v>615</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>671</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B241" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B242" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B246" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D243" s="8" t="s">
+      <c r="D249" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="E243" s="3" t="s">
+      <c r="E249" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F243" s="6" t="s">
+      <c r="F249" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="G243" s="7" t="s">
+      <c r="G249" s="7" t="s">
         <v>673</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="B55">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+  <conditionalFormatting sqref="B56">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
+  <conditionalFormatting sqref="B57">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
+  <conditionalFormatting sqref="B58">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B59">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
+  <conditionalFormatting sqref="B60">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="B69">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12422B92-6CE8-4071-85C4-A7C451BCB376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC6D6A-381E-429E-828E-A4A7824429E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="1200" windowWidth="36840" windowHeight="20430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码指定特效" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="玩家技能" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="729">
   <si>
     <t>##var</t>
   </si>
@@ -30,7 +31,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -41,7 +42,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -57,7 +58,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -68,7 +69,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -102,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -113,7 +114,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1606,684 +1607,900 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>ResEffect_SimpleLightningBoltPrefab1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电特效1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_SimpleLightningBoltAnimatedPrefab1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电特效2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SimpleLightningBoltAnimatedPrefab.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/LightningTrail.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电子弹拖尾特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_LightningTrailPrefab1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹开火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerBomb1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerBomb2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerBomb3.prefab</t>
+  </si>
+  <si>
+    <t>炸弹1命中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹2命中</t>
+  </si>
+  <si>
+    <t>炸弹3命中</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/HitTowerBomb1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/HitTowerBomb2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/HitTowerBomb3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_BuffTowerBomb3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹3眩晕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/BuffTowerBomb3.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerBomb1</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerBomb2</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerBomb3</t>
+  </si>
+  <si>
+    <t>ResEffect_HitTowerBomb1</t>
+  </si>
+  <si>
+    <t>ResEffect_HitTowerBomb2</t>
+  </si>
+  <si>
+    <t>ResEffect_HitTowerBomb3</t>
+  </si>
+  <si>
+    <t>ResEffect_ShootDamageText_Normal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_ShootDamageText_High</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_ShootDamageText_Crt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_ShootDamageText_Cure</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘血(治疗)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘血(暴击)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘血(普通)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘血(高伤害)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_Normal.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_High.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_Crt.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_Cure.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleNum/ShowGetGoldTextPrefab.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BossEffect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_ShootDamageText_CrtAndHigh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘血(暴击+高伤害)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_CrtAndHigh.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Fire_Fire1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Fire_Fire2</t>
+  </si>
+  <si>
+    <t>ResEffect_Fire_Fire3</t>
+  </si>
+  <si>
+    <t>火图腾开火1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火图腾开火2</t>
+  </si>
+  <si>
+    <t>火图腾开火3</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Fire_Fire1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Fire_Fire2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Fire_Fire3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_HitFire1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_HitFire2</t>
+  </si>
+  <si>
+    <t>ResEffect_HitFire3</t>
+  </si>
+  <si>
+    <t>火图腾命中1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火图腾命中2</t>
+  </si>
+  <si>
+    <t>火图腾命中3</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Fire_Hit1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Fire_Hit2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Fire_Hit3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_HitMagicBall1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_HitMagicBall2</t>
+  </si>
+  <si>
+    <t>ResEffect_HitMagicBall3</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/MagicBall_Hit1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/MagicBall_Hit2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/MagicBall_Hit3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Heal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Invisible_Buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-隐身-隐身效果buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Weaken</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-弱化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_TowerFire_Hit1</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerFire_Hit2</t>
+  </si>
+  <si>
+    <t>ResEffect_TowerFire_Hit3</t>
+  </si>
+  <si>
+    <t>水晶塔命中1</t>
+  </si>
+  <si>
+    <t>水晶塔命中2</t>
+  </si>
+  <si>
+    <t>水晶塔命中3</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/TowerFire_Hit1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/TowerFire_Hit2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/TowerFire_Hit3.prefab</t>
+  </si>
+  <si>
+    <t>魔像开火1</t>
+  </si>
+  <si>
+    <t>魔像开火2</t>
+  </si>
+  <si>
+    <t>魔像开火3</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerGolem1</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerGolem2</t>
+  </si>
+  <si>
+    <t>ResEffect_FireTowerGolem3</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGolem1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGolem2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGolem3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_WeakenSmall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-zishen弱化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营死亡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BaseDie</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/BaseDie.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_ZhongZi1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Dan2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>种子1治疗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子2治疗</t>
+  </si>
+  <si>
+    <t>种子3治疗</t>
+  </si>
+  <si>
+    <t>蛋2弱化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋3弱化</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/SeedHeal2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/SeedHeal3.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Dan3_Skill</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Dan3_Hit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋3技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋3命中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼2技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Gui2_Skill</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Niao3_Buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟3buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟1技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟2技能</t>
+  </si>
+  <si>
+    <t>鸟3技能</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Niao1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Niao2</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Niao3</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Long2_Buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Long2</t>
+  </si>
+  <si>
+    <t>龙2技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙2buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStunSmall.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun3.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Dan3_Hit.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Gui2_Skill.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Niao1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_Niao3_Buff.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Long2.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_Long2_Buff.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/BossEffect.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Challenge5_5_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Dan3_Skill.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Default_Monster_XueRen2_Shield</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪人2护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_XueRen2_Buff.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_XueRen3_Buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪人3-buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_XueRen3_Buff.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_WuGui3</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/WuGui3.prefab</t>
+  </si>
+  <si>
+    <t>乌龟3技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-乌龟3-buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Buff_Monster_WuGui3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_WuGui3_Buff.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BaseCrash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营碎裂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/BaseCrash.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/DeathShow/BigDeathExplosionPfx.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_TowerDie</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔死亡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/TowerDie.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身-单体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身-范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>远处-单体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>远处-范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身-方向-矩形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身-方向-扇形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Camera_RectangleArea</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Camera_UmbellateArea</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera-方向-矩形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera-方向-扇形</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Camera_OtherUnit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Camera_OtherArea</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera-单体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera-范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/PlayerSkill_BreakArmor_Hit.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_BreakArmor_Hit</t>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_IceBind_Hit</t>
+  </si>
+  <si>
+    <t>破甲弹命中特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡命中特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界命中特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_TimeBarrier_Area</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/PlayerSkill_TimeBarrier_Area.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/BuffAddTowerZaiE1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Freeze</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Freeze.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Drag_SelfUnit</t>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Drag_SelfArea</t>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Drag_OtherUnit</t>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Drag_OtherArea</t>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Drag_RectangleArea</t>
+  </si>
+  <si>
+    <t>ResEffect_SkillShow_Drag_UmbellateArea</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Camera_OtherUnit.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Camera_OtherArea.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Camera_RectangleArea.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Camera_UmbellateArea.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Drag_OtherArea.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Drag_OtherUnit.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Drag_SelfUnit.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Drag_SelfArea.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Drag_RectangleArea.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Skill_Show/SkillShow_Drag_UmbellateArea.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹命中Mesh特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡命中Mesh特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界命中Mesh特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_TimeBarrier_Hit_Floor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_BreakArmor_Hit_Floor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_IceBind_Hit_Floor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/PlayerSkill_BreakArmor_Hit_Floor.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/ResAB/EffectPrefab/BeHitShow/PlayerSkill_IceBind_Hit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Floor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/PlayerSkill_IceBind_Hit.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/ResAB/EffectPrefab/BeHitShow/PlayerSkill_TimeBarrier_Hit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Floor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/ResAB/EffectPrefab/BeHitShow/PlayerSkill_TimeBarrier_Hit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_TimeBarrier_Hit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹发射特效</t>
+  </si>
+  <si>
+    <t>冰霜漩涡发射特效</t>
+  </si>
+  <si>
+    <t>时空结界发射特效</t>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_BreakArmor_Fire</t>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_IceBind_Fire</t>
+  </si>
+  <si>
+    <t>ResEffect_PlayerSkill_TimeBarrier_Fire</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/SeedHeal1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/PlayerSkill_BreakArmor_Fire.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/PlayerSkill_IceBind_Fire.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/PlayerSkill_TimeBarrier_Fire.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/ResAB/EffectPrefab/BattleEffect/SimpleLightningBoltPrefab.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_SimpleLightningBoltPrefab1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷电特效1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SimpleLightningBoltAnimatedPrefab1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷电特效2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/SimpleLightningBoltAnimatedPrefab.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/LightningTrail.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷电子弹拖尾特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_LightningTrailPrefab1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹开火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerBomb1.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerBomb2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerBomb3.prefab</t>
-  </si>
-  <si>
-    <t>炸弹1命中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹2命中</t>
-  </si>
-  <si>
-    <t>炸弹3命中</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/HitTowerBomb1.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/HitTowerBomb2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/HitTowerBomb3.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_BuffTowerBomb3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸弹3眩晕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/BuffTowerBomb3.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerBomb1</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerBomb2</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerBomb3</t>
-  </si>
-  <si>
-    <t>ResEffect_HitTowerBomb1</t>
-  </si>
-  <si>
-    <t>ResEffect_HitTowerBomb2</t>
-  </si>
-  <si>
-    <t>ResEffect_HitTowerBomb3</t>
-  </si>
-  <si>
-    <t>ResEffect_ShootDamageText_Normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_ShootDamageText_High</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_ShootDamageText_Crt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_ShootDamageText_Cure</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘血(治疗)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘血(暴击)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘血(普通)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘血(高伤害)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_Normal.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_High.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_Crt.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_Cure.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleNum/ShowGetGoldTextPrefab.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_BossEffect</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_ShootDamageText_CrtAndHigh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘血(暴击+高伤害)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleNum/ShootDamageText_CrtAndHigh.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Fire_Fire1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Fire_Fire2</t>
-  </si>
-  <si>
-    <t>ResEffect_Fire_Fire3</t>
-  </si>
-  <si>
-    <t>火图腾开火1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火图腾开火2</t>
-  </si>
-  <si>
-    <t>火图腾开火3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Fire_Fire1.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Fire_Fire2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Fire_Fire3.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_HitFire1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_HitFire2</t>
-  </si>
-  <si>
-    <t>ResEffect_HitFire3</t>
-  </si>
-  <si>
-    <t>火图腾命中1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火图腾命中2</t>
-  </si>
-  <si>
-    <t>火图腾命中3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/Fire_Hit1.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/Fire_Hit2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/Fire_Hit3.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_HitMagicBall1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_HitMagicBall2</t>
-  </si>
-  <si>
-    <t>ResEffect_HitMagicBall3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/MagicBall_Hit1.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/MagicBall_Hit2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/MagicBall_Hit3.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Heal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物通用技能-治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Invisible_Buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物通用技能-隐身-隐身效果buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Weaken</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物通用技能-弱化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_TowerFire_Hit1</t>
-  </si>
-  <si>
-    <t>ResEffect_TowerFire_Hit2</t>
-  </si>
-  <si>
-    <t>ResEffect_TowerFire_Hit3</t>
-  </si>
-  <si>
-    <t>水晶塔命中1</t>
-  </si>
-  <si>
-    <t>水晶塔命中2</t>
-  </si>
-  <si>
-    <t>水晶塔命中3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/TowerFire_Hit1.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/TowerFire_Hit2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/TowerFire_Hit3.prefab</t>
-  </si>
-  <si>
-    <t>魔像开火1</t>
-  </si>
-  <si>
-    <t>魔像开火2</t>
-  </si>
-  <si>
-    <t>魔像开火3</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerGolem1</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerGolem2</t>
-  </si>
-  <si>
-    <t>ResEffect_FireTowerGolem3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGolem1.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGolem2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/FireTowerGolem3.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_Monster_WeakenSmall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物通用技能-zishen弱化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大本营死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_BaseDie</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/BaseDie.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_ZhongZi1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_ZhongZi2</t>
-  </si>
-  <si>
-    <t>ResEffect_Monster_ZhongZi3</t>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Dan2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Dan3</t>
-  </si>
-  <si>
-    <t>种子1治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>种子2治疗</t>
-  </si>
-  <si>
-    <t>种子3治疗</t>
-  </si>
-  <si>
-    <t>蛋2弱化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋3弱化</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/SeedHeal2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/SeedHeal3.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Dan3_Skill</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Dan3_Hit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋3技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋3命中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼2技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Gui2_Skill</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Niao3_Buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟3buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟1技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟2技能</t>
-  </si>
-  <si>
-    <t>鸟3技能</t>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Niao1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Niao2</t>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Niao3</t>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Long2_Buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Long2</t>
-  </si>
-  <si>
-    <t>龙2技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙2buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStunSmall.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun3.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Dan3_Hit.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Gui2_Skill.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Niao1.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_Niao3_Buff.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Long2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_Long2_Buff.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/BossEffect.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_Monster_Challenge5_5_4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Dan3_Skill.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Default_Monster_XueRen2_Shield</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪人2护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_XueRen2_Buff.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_XueRen3_Buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪人3-buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_XueRen3_Buff.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Monster_WuGui3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/WuGui3.prefab</t>
-  </si>
-  <si>
-    <t>乌龟3技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物技能-乌龟3-buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_Buff_Monster_WuGui3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_WuGui3_Buff.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_BaseCrash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大本营碎裂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/BaseCrash.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/DeathShow/BigDeathExplosionPfx.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_TowerDie</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/TowerDie.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Range/RangeSmall.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Self_Unit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Self_Area</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身-单体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身-范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Self_OtherUnit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Self_OtherArea</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>远处-单体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>远处-范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Point/Point Basic.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Self_RectangleArea</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身-方向-矩形</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Self_UmbellateArea</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身-方向-扇形</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/SkillIndicator/Cone/Cone Basic.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/SkillIndicator/AngleMissile/Angle Missile Basic.prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Camera_RectangleArea</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Camera_UmbellateArea</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera-方向-矩形</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera-方向-扇形</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Camera_OtherUnit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_SkillShow_Camera_OtherArea</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera-单体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera-范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_NavMeshRenderer</t>
+  </si>
+  <si>
+    <t>渲染NavMesh</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/NavMeshRenderer.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2291,21 +2508,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2313,7 +2530,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2407,9 +2631,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2773,24 +2997,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25BB935-2B38-4FA3-A9DC-2A027F739218}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +3049,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +3076,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2887,7 +3111,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="2" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2916,7 +3140,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2951,11 +3175,11 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="D6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="B7" s="3" t="s">
         <v>213</v>
       </c>
@@ -2966,7 +3190,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="B8" s="3" t="s">
         <v>215</v>
       </c>
@@ -2977,62 +3201,62 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="B9" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="B10" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:23">
+      <c r="B11" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D11" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:23">
+      <c r="B12" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D13" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="B14" s="3" t="s">
         <v>217</v>
       </c>
@@ -3040,10 +3264,10 @@
         <v>170</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="B15" s="3" t="s">
         <v>218</v>
       </c>
@@ -3054,7 +3278,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="B16" s="3" t="s">
         <v>220</v>
       </c>
@@ -3065,7 +3289,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="3" t="s">
         <v>222</v>
       </c>
@@ -3076,7 +3300,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
         <v>224</v>
       </c>
@@ -3087,7 +3311,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="3" t="s">
         <v>226</v>
       </c>
@@ -3098,114 +3322,125 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E24" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E27" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="3" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="E33" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>675</v>
+      <c r="E34" s="3" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -3220,21 +3455,21 @@
   <dimension ref="A1:W251"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="5" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E247" sqref="E247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3504,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3531,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3331,7 +3566,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="2" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3360,7 +3595,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3395,263 +3630,263 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="B6" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>571</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>572</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="B7" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>573</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>574</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="B8" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>575</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>576</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="B9" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>596</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="B11" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="B12" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+    <row r="14" spans="1:23">
+      <c r="B14" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="B16" s="11" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    <row r="18" spans="2:5">
+      <c r="B18" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E18" s="3" t="s">
+    <row r="19" spans="2:5">
+      <c r="B19" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="E22" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="D23" s="3" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E24" s="3" t="s">
+    <row r="25" spans="2:5">
+      <c r="B25" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" s="3" t="s">
         <v>175</v>
       </c>
@@ -3662,7 +3897,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" s="3" t="s">
         <v>176</v>
       </c>
@@ -3673,7 +3908,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5">
       <c r="B34" s="3" t="s">
         <v>177</v>
       </c>
@@ -3684,7 +3919,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5">
       <c r="B35" s="3" t="s">
         <v>178</v>
       </c>
@@ -3695,7 +3930,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" s="3" t="s">
         <v>179</v>
       </c>
@@ -3706,7 +3941,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="B37" s="3" t="s">
         <v>180</v>
       </c>
@@ -3717,7 +3952,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="B38" s="3" t="s">
         <v>181</v>
       </c>
@@ -3728,7 +3963,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5">
       <c r="B39" s="3" t="s">
         <v>182</v>
       </c>
@@ -3739,7 +3974,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5">
       <c r="B40" s="3" t="s">
         <v>183</v>
       </c>
@@ -3750,7 +3985,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5">
       <c r="B41" s="3" t="s">
         <v>184</v>
       </c>
@@ -3761,7 +3996,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5">
       <c r="B42" s="3" t="s">
         <v>185</v>
       </c>
@@ -3772,7 +4007,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5">
       <c r="B43" s="3" t="s">
         <v>186</v>
       </c>
@@ -3783,7 +4018,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5">
       <c r="B44" s="3" t="s">
         <v>198</v>
       </c>
@@ -3794,7 +4029,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5">
       <c r="B45" s="3" t="s">
         <v>187</v>
       </c>
@@ -3805,7 +4040,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5">
       <c r="B46" s="3" t="s">
         <v>188</v>
       </c>
@@ -3816,7 +4051,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5">
       <c r="B47" s="3" t="s">
         <v>189</v>
       </c>
@@ -3827,7 +4062,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5">
       <c r="B48" s="3" t="s">
         <v>190</v>
       </c>
@@ -3838,7 +4073,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5">
       <c r="B49" s="3" t="s">
         <v>191</v>
       </c>
@@ -3849,7 +4084,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5">
       <c r="B50" s="3" t="s">
         <v>194</v>
       </c>
@@ -3857,10 +4092,10 @@
         <v>195</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="9" t="s">
         <v>199</v>
       </c>
@@ -3868,10 +4103,10 @@
         <v>471</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53" s="9" t="s">
         <v>200</v>
       </c>
@@ -3882,7 +4117,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5">
       <c r="B54" s="9" t="s">
         <v>201</v>
       </c>
@@ -3893,7 +4128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5">
       <c r="B55" s="9" t="s">
         <v>202</v>
       </c>
@@ -3904,7 +4139,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5">
       <c r="B56" s="9" t="s">
         <v>203</v>
       </c>
@@ -3915,7 +4150,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="B57" s="9" t="s">
         <v>204</v>
       </c>
@@ -3926,7 +4161,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5">
       <c r="B58" s="9" t="s">
         <v>205</v>
       </c>
@@ -3937,7 +4172,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5">
       <c r="B59" s="9" t="s">
         <v>472</v>
       </c>
@@ -3948,7 +4183,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5">
       <c r="B60" s="9" t="s">
         <v>473</v>
       </c>
@@ -3959,7 +4194,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5">
       <c r="B61" s="9" t="s">
         <v>474</v>
       </c>
@@ -3970,7 +4205,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5">
       <c r="B62" s="9" t="s">
         <v>475</v>
       </c>
@@ -3981,7 +4216,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5">
       <c r="B63" s="9" t="s">
         <v>476</v>
       </c>
@@ -3992,7 +4227,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5">
       <c r="B64" s="9" t="s">
         <v>477</v>
       </c>
@@ -4003,7 +4238,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5">
       <c r="B65" s="9" t="s">
         <v>478</v>
       </c>
@@ -4014,7 +4249,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5">
       <c r="B66" s="9" t="s">
         <v>479</v>
       </c>
@@ -4025,7 +4260,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5">
       <c r="B67" s="9" t="s">
         <v>481</v>
       </c>
@@ -4036,7 +4271,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5">
       <c r="B68" s="9" t="s">
         <v>482</v>
       </c>
@@ -4047,7 +4282,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5">
       <c r="B69" s="9" t="s">
         <v>483</v>
       </c>
@@ -4058,7 +4293,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5">
       <c r="B70" s="9" t="s">
         <v>484</v>
       </c>
@@ -4069,7 +4304,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5">
       <c r="B71" s="9" t="s">
         <v>485</v>
       </c>
@@ -4080,9 +4315,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5">
       <c r="B72" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>486</v>
@@ -4091,40 +4326,40 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5">
       <c r="B73" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
       <c r="B74" s="12" t="s">
         <v>488</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5">
       <c r="B75" s="12" t="s">
         <v>489</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5">
       <c r="B77" t="s">
         <v>496</v>
       </c>
@@ -4135,33 +4370,33 @@
         <v>497</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5">
       <c r="D78"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5">
       <c r="B79" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:5">
       <c r="B80" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:5">
       <c r="B81" s="3" t="s">
         <v>210</v>
       </c>
@@ -4172,18 +4407,18 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5">
       <c r="B82" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83" s="9" t="s">
         <v>492</v>
       </c>
@@ -4194,7 +4429,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="B84" s="3" t="s">
         <v>211</v>
       </c>
@@ -4205,7 +4440,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5">
       <c r="B85" s="3" t="s">
         <v>228</v>
       </c>
@@ -4216,7 +4451,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5">
       <c r="B86" s="3" t="s">
         <v>230</v>
       </c>
@@ -4227,7 +4462,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5">
       <c r="B87" s="3" t="s">
         <v>232</v>
       </c>
@@ -4238,7 +4473,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5">
       <c r="B88" s="3" t="s">
         <v>234</v>
       </c>
@@ -4249,7 +4484,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5">
       <c r="B89" s="3" t="s">
         <v>237</v>
       </c>
@@ -4260,7 +4495,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5">
       <c r="B90" s="3" t="s">
         <v>240</v>
       </c>
@@ -4271,7 +4506,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5">
       <c r="B91" s="3" t="s">
         <v>243</v>
       </c>
@@ -4282,7 +4517,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5">
       <c r="B92" s="3" t="s">
         <v>24</v>
       </c>
@@ -4293,7 +4528,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5">
       <c r="B93" s="3" t="s">
         <v>25</v>
       </c>
@@ -4301,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" s="11" customFormat="1">
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5">
       <c r="B95" s="3" t="s">
         <v>247</v>
       </c>
@@ -4318,7 +4553,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5">
       <c r="B96" s="3" t="s">
         <v>249</v>
       </c>
@@ -4329,7 +4564,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5">
       <c r="B97" s="3" t="s">
         <v>251</v>
       </c>
@@ -4340,7 +4575,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5">
       <c r="B98" s="3" t="s">
         <v>253</v>
       </c>
@@ -4351,7 +4586,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5">
       <c r="B99" s="3" t="s">
         <v>255</v>
       </c>
@@ -4362,7 +4597,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5">
       <c r="B100" s="3" t="s">
         <v>257</v>
       </c>
@@ -4373,7 +4608,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5">
       <c r="B101" s="3" t="s">
         <v>259</v>
       </c>
@@ -4384,7 +4619,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5">
       <c r="B102" s="3" t="s">
         <v>261</v>
       </c>
@@ -4395,7 +4630,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5">
       <c r="B103" s="3" t="s">
         <v>263</v>
       </c>
@@ -4406,7 +4641,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5">
       <c r="B104" s="3" t="s">
         <v>265</v>
       </c>
@@ -4417,7 +4652,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5">
       <c r="B105" s="3" t="s">
         <v>267</v>
       </c>
@@ -4428,7 +4663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5">
       <c r="B106" s="3" t="s">
         <v>269</v>
       </c>
@@ -4439,7 +4674,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5">
       <c r="B107" s="3" t="s">
         <v>271</v>
       </c>
@@ -4450,7 +4685,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5">
       <c r="B108" s="3" t="s">
         <v>273</v>
       </c>
@@ -4461,7 +4696,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5">
       <c r="B109" s="3" t="s">
         <v>275</v>
       </c>
@@ -4472,7 +4707,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5">
       <c r="B110" s="3" t="s">
         <v>277</v>
       </c>
@@ -4483,7 +4718,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5">
       <c r="B111" s="3" t="s">
         <v>499</v>
       </c>
@@ -4494,7 +4729,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5">
       <c r="B112" s="3" t="s">
         <v>279</v>
       </c>
@@ -4505,7 +4740,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5">
       <c r="B113" s="3" t="s">
         <v>281</v>
       </c>
@@ -4516,7 +4751,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5">
       <c r="B114" s="3" t="s">
         <v>283</v>
       </c>
@@ -4527,7 +4762,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5">
       <c r="B115" s="3" t="s">
         <v>285</v>
       </c>
@@ -4538,7 +4773,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5">
       <c r="B116" s="3" t="s">
         <v>287</v>
       </c>
@@ -4549,7 +4784,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5">
       <c r="B117" s="3" t="s">
         <v>289</v>
       </c>
@@ -4560,7 +4795,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5">
       <c r="B118" s="3" t="s">
         <v>291</v>
       </c>
@@ -4571,7 +4806,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5">
       <c r="B119" s="3" t="s">
         <v>293</v>
       </c>
@@ -4582,7 +4817,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5">
       <c r="B120" s="3" t="s">
         <v>295</v>
       </c>
@@ -4593,7 +4828,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5">
       <c r="B121" s="3" t="s">
         <v>297</v>
       </c>
@@ -4604,7 +4839,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5">
       <c r="B122" s="3" t="s">
         <v>299</v>
       </c>
@@ -4615,7 +4850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5">
       <c r="B123" s="3" t="s">
         <v>301</v>
       </c>
@@ -4626,7 +4861,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5">
       <c r="B124" s="3" t="s">
         <v>303</v>
       </c>
@@ -4637,7 +4872,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5">
       <c r="B125" s="3" t="s">
         <v>305</v>
       </c>
@@ -4648,7 +4883,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5">
       <c r="B126" s="3" t="s">
         <v>307</v>
       </c>
@@ -4659,7 +4894,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5">
       <c r="B127" s="3" t="s">
         <v>309</v>
       </c>
@@ -4670,7 +4905,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5">
       <c r="B128" s="3" t="s">
         <v>311</v>
       </c>
@@ -4681,7 +4916,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5">
       <c r="B129" s="3" t="s">
         <v>313</v>
       </c>
@@ -4692,7 +4927,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5">
       <c r="B130" s="3" t="s">
         <v>315</v>
       </c>
@@ -4703,7 +4938,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5">
       <c r="B131" s="3" t="s">
         <v>317</v>
       </c>
@@ -4714,7 +4949,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5">
       <c r="B132" s="3" t="s">
         <v>319</v>
       </c>
@@ -4725,10 +4960,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5">
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5">
       <c r="B134" s="3" t="s">
         <v>321</v>
       </c>
@@ -4739,7 +4974,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5">
       <c r="B135" s="3" t="s">
         <v>64</v>
       </c>
@@ -4750,7 +4985,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5">
       <c r="B136" s="3" t="s">
         <v>66</v>
       </c>
@@ -4761,7 +4996,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5">
       <c r="B137" s="3" t="s">
         <v>68</v>
       </c>
@@ -4772,7 +5007,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5">
       <c r="B138" s="3" t="s">
         <v>70</v>
       </c>
@@ -4783,7 +5018,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5">
       <c r="B139" s="3" t="s">
         <v>72</v>
       </c>
@@ -4794,7 +5029,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5">
       <c r="B140" s="3" t="s">
         <v>74</v>
       </c>
@@ -4805,7 +5040,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5">
       <c r="B141" s="3" t="s">
         <v>76</v>
       </c>
@@ -4816,7 +5051,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5">
       <c r="B142" s="3" t="s">
         <v>78</v>
       </c>
@@ -4827,7 +5062,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5">
       <c r="B143" s="3" t="s">
         <v>80</v>
       </c>
@@ -4838,7 +5073,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5">
       <c r="B144" s="3" t="s">
         <v>82</v>
       </c>
@@ -4849,7 +5084,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5">
       <c r="B145" s="3" t="s">
         <v>84</v>
       </c>
@@ -4860,7 +5095,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5">
       <c r="B146" s="3" t="s">
         <v>86</v>
       </c>
@@ -4871,7 +5106,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5">
       <c r="B147" s="3" t="s">
         <v>88</v>
       </c>
@@ -4882,7 +5117,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5">
       <c r="B148" s="3" t="s">
         <v>90</v>
       </c>
@@ -4893,7 +5128,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5">
       <c r="B149" s="3" t="s">
         <v>92</v>
       </c>
@@ -4904,7 +5139,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5">
       <c r="B150" s="3" t="s">
         <v>94</v>
       </c>
@@ -4915,7 +5150,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5">
       <c r="B151" s="3" t="s">
         <v>96</v>
       </c>
@@ -4926,7 +5161,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5">
       <c r="B152" s="3" t="s">
         <v>98</v>
       </c>
@@ -4937,7 +5172,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5">
       <c r="B153" s="3" t="s">
         <v>100</v>
       </c>
@@ -4948,7 +5183,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5">
       <c r="B154" s="3" t="s">
         <v>102</v>
       </c>
@@ -4959,7 +5194,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5">
       <c r="B155" s="3" t="s">
         <v>104</v>
       </c>
@@ -4970,7 +5205,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5">
       <c r="B156" s="3" t="s">
         <v>106</v>
       </c>
@@ -4981,7 +5216,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5">
       <c r="B157" s="3" t="s">
         <v>108</v>
       </c>
@@ -4992,7 +5227,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5">
       <c r="B158" s="3" t="s">
         <v>110</v>
       </c>
@@ -5003,109 +5238,109 @@
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5">
       <c r="B159" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="D159" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="E159" s="6" t="s">
+      <c r="D160" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E160" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="10" t="s">
+    <row r="161" spans="2:5">
+      <c r="B161" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="D160" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="E160" s="6" t="s">
+      <c r="D161" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5">
       <c r="B162" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D163" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E163" s="6" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="10" t="s">
+    <row r="164" spans="2:5">
+      <c r="B164" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D164" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E164" s="6" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5">
       <c r="B165" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D166" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E166" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="7" t="s">
+    <row r="167" spans="2:5">
+      <c r="B167" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D167" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5">
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5">
       <c r="B169" s="3" t="s">
         <v>346</v>
       </c>
@@ -5116,7 +5351,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5">
       <c r="B170" s="3" t="s">
         <v>348</v>
       </c>
@@ -5127,7 +5362,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5">
       <c r="B171" s="3" t="s">
         <v>350</v>
       </c>
@@ -5138,7 +5373,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5">
       <c r="B172" s="3" t="s">
         <v>352</v>
       </c>
@@ -5149,7 +5384,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5">
       <c r="B173" s="3" t="s">
         <v>354</v>
       </c>
@@ -5160,7 +5395,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5">
       <c r="B174" s="3" t="s">
         <v>356</v>
       </c>
@@ -5171,7 +5406,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5">
       <c r="B175" s="3" t="s">
         <v>358</v>
       </c>
@@ -5182,7 +5417,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5">
       <c r="B176" s="3" t="s">
         <v>360</v>
       </c>
@@ -5193,7 +5428,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5">
       <c r="B177" s="3" t="s">
         <v>362</v>
       </c>
@@ -5204,7 +5439,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5">
       <c r="B178" s="3" t="s">
         <v>364</v>
       </c>
@@ -5215,7 +5450,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5">
       <c r="B179" s="3" t="s">
         <v>366</v>
       </c>
@@ -5226,7 +5461,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5">
       <c r="B180" s="3" t="s">
         <v>368</v>
       </c>
@@ -5237,7 +5472,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5">
       <c r="B181" s="3" t="s">
         <v>370</v>
       </c>
@@ -5248,7 +5483,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5">
       <c r="B182" s="3" t="s">
         <v>372</v>
       </c>
@@ -5259,7 +5494,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5">
       <c r="B183" s="3" t="s">
         <v>374</v>
       </c>
@@ -5270,7 +5505,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5">
       <c r="B184" s="3" t="s">
         <v>376</v>
       </c>
@@ -5281,7 +5516,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5">
       <c r="B185" s="3" t="s">
         <v>378</v>
       </c>
@@ -5292,7 +5527,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5">
       <c r="B186" s="3" t="s">
         <v>380</v>
       </c>
@@ -5303,7 +5538,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5">
       <c r="B187" s="3" t="s">
         <v>382</v>
       </c>
@@ -5314,7 +5549,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5">
       <c r="B188" s="3" t="s">
         <v>384</v>
       </c>
@@ -5325,7 +5560,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5">
       <c r="B189" s="3" t="s">
         <v>386</v>
       </c>
@@ -5336,7 +5571,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5">
       <c r="B190" s="3" t="s">
         <v>388</v>
       </c>
@@ -5347,7 +5582,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5">
       <c r="B191" s="3" t="s">
         <v>390</v>
       </c>
@@ -5358,7 +5593,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5">
       <c r="B192" s="3" t="s">
         <v>392</v>
       </c>
@@ -5369,7 +5604,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5">
       <c r="B193" s="3" t="s">
         <v>394</v>
       </c>
@@ -5380,7 +5615,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5">
       <c r="B194" s="3" t="s">
         <v>396</v>
       </c>
@@ -5391,7 +5626,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5">
       <c r="B195" s="3" t="s">
         <v>398</v>
       </c>
@@ -5402,7 +5637,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5">
       <c r="B196" s="3" t="s">
         <v>400</v>
       </c>
@@ -5413,7 +5648,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5">
       <c r="B197" s="3" t="s">
         <v>402</v>
       </c>
@@ -5424,7 +5659,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5">
       <c r="B198" s="3" t="s">
         <v>404</v>
       </c>
@@ -5435,7 +5670,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5">
       <c r="B199" s="3" t="s">
         <v>406</v>
       </c>
@@ -5446,7 +5681,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5">
       <c r="B200" s="3" t="s">
         <v>408</v>
       </c>
@@ -5457,7 +5692,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5">
       <c r="B201" s="3" t="s">
         <v>410</v>
       </c>
@@ -5468,142 +5703,142 @@
         <v>411</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5">
       <c r="B202" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D203" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E203" s="6" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="10" t="s">
+    <row r="204" spans="2:5">
+      <c r="B204" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D204" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E204" s="6" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5">
       <c r="B205" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D206" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E206" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="10" t="s">
+    <row r="207" spans="2:5">
+      <c r="B207" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D207" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="E207" s="6" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="E207" s="6" t="s">
+    <row r="208" spans="2:5">
+      <c r="B208" s="10" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="10" t="s">
-        <v>565</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
       <c r="B209" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
       <c r="B210" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
       <c r="B211" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D212" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="E212" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="3" t="s">
+    <row r="213" spans="2:5">
+      <c r="B213" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D213" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E212" s="6" t="s">
+      <c r="E213" s="6" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5">
       <c r="E214" s="6"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5">
       <c r="B215" s="3" t="s">
         <v>412</v>
       </c>
@@ -5614,7 +5849,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5">
       <c r="B216" s="3" t="s">
         <v>414</v>
       </c>
@@ -5625,7 +5860,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5">
       <c r="B217" s="3" t="s">
         <v>416</v>
       </c>
@@ -5636,7 +5871,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5">
       <c r="B218" s="3" t="s">
         <v>418</v>
       </c>
@@ -5647,7 +5882,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5">
       <c r="B219" s="3" t="s">
         <v>420</v>
       </c>
@@ -5658,7 +5893,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5">
       <c r="B220" s="3" t="s">
         <v>422</v>
       </c>
@@ -5669,7 +5904,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5">
       <c r="B221" s="3" t="s">
         <v>424</v>
       </c>
@@ -5680,7 +5915,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5">
       <c r="B222" s="3" t="s">
         <v>426</v>
       </c>
@@ -5691,7 +5926,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5">
       <c r="B223" s="3" t="s">
         <v>428</v>
       </c>
@@ -5702,7 +5937,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5">
       <c r="B224" s="3" t="s">
         <v>430</v>
       </c>
@@ -5713,7 +5948,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5">
       <c r="B225" s="3" t="s">
         <v>432</v>
       </c>
@@ -5724,7 +5959,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5">
       <c r="B226" s="3" t="s">
         <v>434</v>
       </c>
@@ -5735,7 +5970,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5">
       <c r="B227" s="3" t="s">
         <v>436</v>
       </c>
@@ -5746,7 +5981,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5">
       <c r="B228" s="3" t="s">
         <v>437</v>
       </c>
@@ -5757,7 +5992,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5">
       <c r="B229" s="3" t="s">
         <v>439</v>
       </c>
@@ -5768,7 +6003,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5">
       <c r="B230" s="3" t="s">
         <v>441</v>
       </c>
@@ -5779,7 +6014,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5">
       <c r="B231" s="3" t="s">
         <v>443</v>
       </c>
@@ -5790,7 +6025,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5">
       <c r="B232" s="3" t="s">
         <v>445</v>
       </c>
@@ -5801,7 +6036,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5">
       <c r="B233" s="3" t="s">
         <v>447</v>
       </c>
@@ -5812,7 +6047,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5">
       <c r="B234" s="3" t="s">
         <v>449</v>
       </c>
@@ -5823,7 +6058,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5">
       <c r="B235" s="3" t="s">
         <v>451</v>
       </c>
@@ -5834,7 +6069,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5">
       <c r="B236" s="3" t="s">
         <v>453</v>
       </c>
@@ -5845,7 +6080,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5">
       <c r="B237" s="3" t="s">
         <v>455</v>
       </c>
@@ -5856,7 +6091,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5">
       <c r="B238" s="3" t="s">
         <v>457</v>
       </c>
@@ -5867,7 +6102,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5">
       <c r="B239" s="3" t="s">
         <v>459</v>
       </c>
@@ -5878,7 +6113,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5">
       <c r="B240" s="3" t="s">
         <v>461</v>
       </c>
@@ -5889,7 +6124,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5">
       <c r="B241" s="3" t="s">
         <v>463</v>
       </c>
@@ -5900,7 +6135,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5">
       <c r="B242" s="3" t="s">
         <v>465</v>
       </c>
@@ -5911,7 +6146,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5">
       <c r="B243" s="3" t="s">
         <v>467</v>
       </c>
@@ -5922,7 +6157,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5">
       <c r="B244" s="3" t="s">
         <v>469</v>
       </c>
@@ -5933,48 +6168,48 @@
         <v>470</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5">
       <c r="B245" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D245" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="E245" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="E245" s="6" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:5">
       <c r="B247" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D247" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="D247" s="7" t="s">
+      <c r="E247" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E247" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B248" s="3" t="s">
+      <c r="D248" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="D248" s="7" t="s">
+      <c r="E248" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E248" s="6" t="s">
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E251" s="6" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B251" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D251" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -6009,4 +6244,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518E5330-3753-4E3A-9B48-5C12E5530FDB}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC6D6A-381E-429E-828E-A4A7824429E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53199AD8-2070-4573-9D12-E8DB6ECF0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1200" windowWidth="36840" windowHeight="20430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码指定特效" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="798">
   <si>
     <t>##var</t>
   </si>
@@ -31,7 +31,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -42,7 +42,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -58,7 +58,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -69,7 +69,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -103,7 +103,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -114,7 +114,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -189,12 +189,6 @@
     <t>3级火柱</t>
   </si>
   <si>
-    <t>毒气</t>
-  </si>
-  <si>
-    <t>3级毒气</t>
-  </si>
-  <si>
     <t>弩箭开火1</t>
   </si>
   <si>
@@ -1042,9 +1036,6 @@
     <t>ResEffect_TowerTime_Hit1</t>
   </si>
   <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/TowerTime_Hit1.prefab</t>
-  </si>
-  <si>
     <t>ResEffect_TowerTime_Hit2</t>
   </si>
   <si>
@@ -2061,18 +2052,9 @@
     <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStunSmall.prefab</t>
   </si>
   <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun2.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun3.prefab</t>
-  </si>
-  <si>
     <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Dan3_Hit.prefab</t>
   </si>
   <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Gui2_Skill.prefab</t>
-  </si>
-  <si>
     <t>Assets/ResAB/EffectPrefab/FireShow/Niao1.prefab</t>
   </si>
   <si>
@@ -2083,9 +2065,6 @@
   </si>
   <si>
     <t>Assets/ResAB/EffectPrefab/BeHitShow/Monster_Long2_Buff.prefab</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/BossEffect.prefab</t>
   </si>
   <si>
     <t>ResEffect_Monster_Challenge5_5_4</t>
@@ -2364,7 +2343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2375,7 +2354,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2396,7 +2375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2407,7 +2386,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2424,7 +2403,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2484,23 +2463,326 @@
   <si>
     <t>Assets/ResAB/EffectPrefab/BattleEffect/NavMeshRenderer.prefab</t>
   </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Charge.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Charge</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-聚气</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Born</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-召唤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Born.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Miss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-Miss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Miss.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-Miss Buff效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_BuffMiss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/BuffMiss.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Dan3_Buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋3buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun3.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Monster_Dan3_Buff.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Skull2_Skill</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Skull2_Skill.prefab</t>
+  </si>
+  <si>
+    <t>骷髅2技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_BuffReborn</t>
+  </si>
+  <si>
+    <t>怪物通用技能-Reborn Buff效果</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/BuffReborn.prefab</t>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Born_Tombstone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-召唤墓碑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Born_Tombstone.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Spirit1_Skill</t>
+  </si>
+  <si>
+    <t>恶灵1技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Spirit1_Skill.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Spirit2_Skill</t>
+  </si>
+  <si>
+    <t>恶灵2技能</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Spirit2_Skill.prefab</t>
+  </si>
+  <si>
+    <t>火精灵1冲击波</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/SkillStun2.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_FireSpirit1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/FireSpirit1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火精灵燃烧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Monster_FireSpirit_Burning</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/FireSpirit_Burning.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_EarthBurning</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火精灵燃烧-火海</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/EarthFire.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_StoneGolem1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像1-钻地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/StoneGolem1_Dust.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_StoneGolem2</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/StoneGolem2.prefab</t>
+  </si>
+  <si>
+    <t>石像2技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_StoneGolem3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像3技能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/StoneGolem3.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Scorpid1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹蝎1击中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Scorpid1_Hit.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BeHitShow/Scorpid1_Buff.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Scorpid1_Buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹蝎1麻痹buff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/BossEffect.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Blink.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Blink</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Imp2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小恶魔2 群体闪现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Imp2.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Imp3</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Imp3.prefab</t>
+  </si>
+  <si>
+    <t>小恶魔3 召唤boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/TowerTime_Hit1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Drag2.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔1</t>
+  </si>
+  <si>
+    <t>ResEffect_Drag2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Monster_Gui2_Skill.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Fire2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柱2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Fire2.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2508,21 +2790,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2530,14 +2812,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2631,9 +2913,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2999,22 +3281,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25BB935-2B38-4FA3-A9DC-2A027F739218}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3049,7 +3331,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3076,7 +3358,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3111,7 +3393,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3140,7 +3422,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3175,272 +3457,272 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="B9" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="B10" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="B11" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="B12" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="B13" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="B14" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="B15" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="D22" s="3" t="s">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="3" t="s">
+      <c r="D34" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -3452,24 +3734,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W251"/>
+  <dimension ref="A1:W274"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E247" sqref="E247"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3504,7 +3786,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3813,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3566,7 +3848,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3595,7 +3877,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3630,2615 +3912,2868 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E7" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D8" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
-      <c r="B7" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="D7" s="11" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>493</v>
+      </c>
+      <c r="D98" t="s">
+        <v>167</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D99"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D104" t="s">
+        <v>490</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B186" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B201" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B207" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B222" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B224" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B229" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B231" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B232" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B233" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D234" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B235" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D238" t="s">
+        <v>143</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D239" t="s">
+        <v>144</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B240" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D240" t="s">
+        <v>145</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B241" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D241" t="s">
+        <v>146</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B242" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D242" t="s">
+        <v>147</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B243" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D243" t="s">
+        <v>148</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D244" t="s">
+        <v>149</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B245" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D245" t="s">
+        <v>150</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B246" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D246" t="s">
+        <v>151</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B247" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D247" t="s">
+        <v>152</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B248" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D248" t="s">
+        <v>153</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D249" t="s">
+        <v>154</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B250" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D250" t="s">
+        <v>155</v>
+      </c>
+      <c r="E250" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="B9" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="B11" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="B12" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="B13" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="B14" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="B15" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="B16" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="3" t="s">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D251" t="s">
+        <v>156</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B252" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D252" t="s">
+        <v>157</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B253" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B254" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B255" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B256" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D256" t="s">
+        <v>158</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D257" t="s">
+        <v>159</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B258" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D258" t="s">
+        <v>160</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D259" t="s">
+        <v>161</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D260" t="s">
+        <v>162</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D261" t="s">
+        <v>163</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B262" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D262" t="s">
+        <v>164</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D263" t="s">
+        <v>165</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B264" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D264" t="s">
+        <v>166</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B265" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D265" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" t="s">
-        <v>496</v>
-      </c>
-      <c r="D77" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="D78"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="D83" t="s">
-        <v>493</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" s="11" customFormat="1">
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="3" t="s">
+      <c r="E265" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B266" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B268" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B270" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D270" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E111" s="6" t="s">
+      <c r="E270" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B271" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="E133" s="6"/>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5">
-      <c r="B142" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="B151" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="B152" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="B156" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="B160" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5">
-      <c r="B161" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5">
-      <c r="B162" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5">
-      <c r="B163" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5">
-      <c r="B165" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5">
-      <c r="B166" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
-      <c r="B167" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5">
-      <c r="E168" s="6"/>
-    </row>
-    <row r="169" spans="2:5">
-      <c r="B169" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5">
-      <c r="B170" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5">
-      <c r="B171" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5">
-      <c r="B172" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5">
-      <c r="B173" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5">
-      <c r="B174" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5">
-      <c r="B175" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5">
-      <c r="B176" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5">
-      <c r="B177" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5">
-      <c r="B178" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5">
-      <c r="B179" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5">
-      <c r="B180" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5">
-      <c r="B181" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5">
-      <c r="B182" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5">
-      <c r="B183" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5">
-      <c r="B184" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5">
-      <c r="B185" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5">
-      <c r="B186" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5">
-      <c r="B187" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5">
-      <c r="B188" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5">
-      <c r="B189" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5">
-      <c r="B190" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5">
-      <c r="B191" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5">
-      <c r="B192" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5">
-      <c r="B193" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5">
-      <c r="B194" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5">
-      <c r="B195" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E195" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5">
-      <c r="B196" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5">
-      <c r="B197" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5">
-      <c r="B198" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5">
-      <c r="B199" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5">
-      <c r="B200" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5">
-      <c r="B201" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5">
-      <c r="B202" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5">
-      <c r="B203" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5">
-      <c r="B204" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5">
-      <c r="B205" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5">
-      <c r="B206" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5">
-      <c r="B207" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5">
-      <c r="B208" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5">
-      <c r="B209" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5">
-      <c r="B210" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5">
-      <c r="B211" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5">
-      <c r="B212" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5">
-      <c r="B213" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5">
-      <c r="E214" s="6"/>
-    </row>
-    <row r="215" spans="2:5">
-      <c r="B215" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D215" t="s">
-        <v>145</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5">
-      <c r="B216" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D216" t="s">
-        <v>146</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5">
-      <c r="B217" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D217" t="s">
-        <v>147</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5">
-      <c r="B218" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D218" t="s">
-        <v>148</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5">
-      <c r="B219" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D219" t="s">
-        <v>149</v>
-      </c>
-      <c r="E219" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5">
-      <c r="B220" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D220" t="s">
-        <v>150</v>
-      </c>
-      <c r="E220" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5">
-      <c r="B221" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D221" t="s">
-        <v>151</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5">
-      <c r="B222" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D222" t="s">
-        <v>152</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5">
-      <c r="B223" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D223" t="s">
-        <v>153</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5">
-      <c r="B224" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D224" t="s">
-        <v>154</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5">
-      <c r="B225" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D225" t="s">
-        <v>155</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5">
-      <c r="B226" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D226" t="s">
-        <v>156</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5">
-      <c r="B227" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D227" t="s">
-        <v>157</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5">
-      <c r="B228" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D228" t="s">
-        <v>158</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5">
-      <c r="B229" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D229" t="s">
-        <v>159</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5">
-      <c r="B230" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5">
-      <c r="B231" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5">
-      <c r="B232" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="233" spans="2:5">
-      <c r="B233" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D233" t="s">
-        <v>160</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5">
-      <c r="B234" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D234" t="s">
-        <v>161</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5">
-      <c r="B235" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D235" t="s">
-        <v>162</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5">
-      <c r="B236" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D236" t="s">
-        <v>163</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5">
-      <c r="B237" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D237" t="s">
-        <v>164</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="238" spans="2:5">
-      <c r="B238" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D238" t="s">
-        <v>165</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5">
-      <c r="B239" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D239" t="s">
-        <v>166</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5">
-      <c r="B240" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D240" t="s">
-        <v>167</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5">
-      <c r="B241" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D241" t="s">
-        <v>168</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5">
-      <c r="B242" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="243" spans="2:5">
-      <c r="B243" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5">
-      <c r="B244" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5">
-      <c r="B245" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5">
-      <c r="B247" s="3" t="s">
+      <c r="D271" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="D247" s="7" t="s">
+      <c r="E271" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="E247" s="6" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5">
-      <c r="B248" s="3" t="s">
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B274" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E274" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="251" spans="2:5">
-      <c r="B251" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D251" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>506</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="B31">
     <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="B34">
     <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
+  <conditionalFormatting sqref="B88">
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
+  <conditionalFormatting sqref="B89">
     <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B90">
     <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B91">
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
+  <conditionalFormatting sqref="B92">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
+  <conditionalFormatting sqref="B93">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B104">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6254,15 +6789,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="60.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6279,7 +6814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6288,7 +6823,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -6305,7 +6840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -6316,7 +6851,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -6333,125 +6868,125 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E15" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="E16" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53199AD8-2070-4573-9D12-E8DB6ECF0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C102D9-24E3-4D8C-86E9-BF193CEFFCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码指定特效" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="玩家技能" sheetId="3" r:id="rId3"/>
+    <sheet name="防御塔" sheetId="4" r:id="rId2"/>
+    <sheet name="怪物" sheetId="1" r:id="rId3"/>
+    <sheet name="玩家技能" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="846">
   <si>
     <t>##var</t>
   </si>
@@ -135,12 +136,6 @@
     <t>血量显示</t>
   </si>
   <si>
-    <t>音效挂件</t>
-  </si>
-  <si>
-    <t>塔的显示圈</t>
-  </si>
-  <si>
     <t>塔的星星</t>
   </si>
   <si>
@@ -589,9 +584,6 @@
     <t>诅咒塔3</t>
   </si>
   <si>
-    <t>火焰塔灼烧buff1</t>
-  </si>
-  <si>
     <t>获得金币显示</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -740,12 +732,6 @@
   </si>
   <si>
     <t>ResEffect_ShowGetGoldTextPrefab</t>
-  </si>
-  <si>
-    <t>ResEffect_AudioSource</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/AudioSource.prefab</t>
   </si>
   <si>
     <t>ResEffect_TowerShow</t>
@@ -2764,6 +2750,211 @@
   </si>
   <si>
     <t>Assets/ResAB/EffectPrefab/FireShow/Fire2.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_FloatingText_Damage_Normal</t>
+  </si>
+  <si>
+    <t>飘血(普通)</t>
+  </si>
+  <si>
+    <t>ResEffect_FloatingText_Damage_Normal_Crit</t>
+  </si>
+  <si>
+    <t>飘血(暴击)</t>
+  </si>
+  <si>
+    <t>ResEffect_FloatingText_Heal</t>
+  </si>
+  <si>
+    <t>飘血(治疗)</t>
+  </si>
+  <si>
+    <t>ResEffect_FloatingText_Damage_Poison</t>
+  </si>
+  <si>
+    <t>飘血(毒)</t>
+  </si>
+  <si>
+    <t>状态创建</t>
+  </si>
+  <si>
+    <t>ResEffect_FloatingText_Effect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FloatingNumber/EffectFloatingText.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FloatingNumber/PoisonFloatingText.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FloatingNumber/HealFloatingText.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FloatingNumber/Damage_CriticalFloatingText.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FloatingNumber/Damage_NormalFloatingText.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_PlayerUnitShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_HomeShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home的显示圈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerUnit的显示圈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower的显示圈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/PlayerUnitShow.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/HomeShow.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Monster_Slowed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-被减速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Slow.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Invisibility</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-进入隐身</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Invisibility.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效-灼烧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效-加攻速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效-减攻速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效-加攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效-减攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效-加防御</t>
+  </si>
+  <si>
+    <t>通用特效-减防御</t>
+  </si>
+  <si>
+    <r>
+      <t>ResEffect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_AttackSpeedUp</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_AttackSpeedDown</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_AttackUp</t>
+  </si>
+  <si>
+    <t>ResEffect_AttackDown</t>
+  </si>
+  <si>
+    <t>ResEffect_DefenceUp</t>
+  </si>
+  <si>
+    <t>ResEffect_DefenceDown</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/AttackSpeedDown.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/AttackUp.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/AttackDown.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/DefenceUp.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/DefenceDown.prefab</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/AttackSpeedUp.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/AudioBattleSource.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_AudioBattleSource</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_AudioManagerSource</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/AudioManagerSource.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗音效挂件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI音效挂件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2889,7 +3080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -2911,6 +3102,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -3279,24 +3472,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25BB935-2B38-4FA3-A9DC-2A027F739218}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.21875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3524,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3358,7 +3551,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3393,7 +3586,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3422,7 +3615,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3457,272 +3650,305 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6" t="s">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="D23" s="3" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+      <c r="D37" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -3733,25 +3959,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W274"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA62B718-BD84-4464-9239-32F0565757FB}">
+  <dimension ref="A1:W198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.21875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3786,7 +4012,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3813,7 +4039,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3848,7 +4074,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3877,7 +4103,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3912,2869 +4138,2066 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="D6" s="11" t="s">
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D22" t="s">
+        <v>485</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D152" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D156" t="s">
+        <v>141</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D157" t="s">
+        <v>142</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D158" t="s">
+        <v>143</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D159" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D160" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D161" t="s">
+        <v>146</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D162" t="s">
+        <v>147</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D163" t="s">
+        <v>148</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D164" t="s">
+        <v>149</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D165" t="s">
+        <v>150</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D166" t="s">
+        <v>151</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D167" t="s">
+        <v>152</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D168" t="s">
+        <v>153</v>
+      </c>
+      <c r="E168" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
-        <v>734</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="E24" s="3" t="s">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D169" t="s">
+        <v>154</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D170" t="s">
+        <v>155</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D174" t="s">
+        <v>156</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D175" t="s">
+        <v>157</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D176" t="s">
+        <v>158</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D177" t="s">
+        <v>159</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D178" t="s">
+        <v>160</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D179" t="s">
+        <v>161</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D180" t="s">
+        <v>162</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D181" t="s">
+        <v>163</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D182" t="s">
+        <v>164</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
-        <v>738</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="11" t="s">
-        <v>769</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>493</v>
-      </c>
-      <c r="D98" t="s">
-        <v>167</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D99"/>
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="D104" t="s">
-        <v>490</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="3" t="s">
+      <c r="E194" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E195" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="3" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E156" s="6"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B177" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B181" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B182" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B183" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B184" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B185" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B186" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B188" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B189" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B190" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E191" s="6"/>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B192" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B193" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B194" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B195" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E195" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B196" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="D196" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="3" t="s">
-        <v>353</v>
+        <v>799</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
-        <v>355</v>
+        <v>802</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B199" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B200" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B201" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B202" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B203" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B204" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B205" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B207" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B208" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B209" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B210" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B211" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B212" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B213" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B214" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B215" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B216" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B218" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B219" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E219" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B220" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E220" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B221" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B222" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B223" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B224" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B225" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B226" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B227" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B228" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B229" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B230" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B231" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B232" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B233" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B234" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B235" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B236" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E237" s="6"/>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B238" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D238" t="s">
-        <v>143</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B239" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D239" t="s">
-        <v>144</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B240" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D240" t="s">
-        <v>145</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B241" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" t="s">
-        <v>146</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B242" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D242" t="s">
-        <v>147</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B243" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D243" t="s">
-        <v>148</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B244" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D244" t="s">
-        <v>149</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B245" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D245" t="s">
-        <v>150</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B246" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D246" t="s">
-        <v>151</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B247" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D247" t="s">
-        <v>152</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B248" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D248" t="s">
-        <v>153</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B249" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D249" t="s">
-        <v>154</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B250" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D250" t="s">
-        <v>155</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B251" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D251" t="s">
-        <v>156</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B252" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D252" t="s">
-        <v>157</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B253" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D253" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B254" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D254" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B255" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D255" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B256" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D256" t="s">
-        <v>158</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B257" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D257" t="s">
-        <v>159</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B258" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D258" t="s">
-        <v>160</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B259" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D259" t="s">
-        <v>161</v>
-      </c>
-      <c r="E259" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B260" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D260" t="s">
-        <v>162</v>
-      </c>
-      <c r="E260" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B261" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D261" t="s">
-        <v>163</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B262" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D262" t="s">
-        <v>164</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B263" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D263" t="s">
-        <v>165</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B264" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D264" t="s">
-        <v>166</v>
-      </c>
-      <c r="E264" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B265" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D265" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B266" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D266" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E266" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B267" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D267" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E267" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B268" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D268" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="E268" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B270" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B271" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D271" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E271" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B274" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="D274" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>503</v>
+        <v>801</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>803</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6782,6 +6205,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W98"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.21875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518E5330-3753-4E3A-9B48-5C12E5530FDB}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -6789,15 +7408,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6814,7 +7433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6823,7 +7442,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -6840,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -6851,7 +7470,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -6868,125 +7487,125 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>674</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResEffectCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C102D9-24E3-4D8C-86E9-BF193CEFFCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C56778-9520-4D29-9068-5B9784A99EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代码指定特效" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="858">
   <si>
     <t>##var</t>
   </si>
@@ -716,12 +716,6 @@
     <t>ResEffect_Placed</t>
   </si>
   <si>
-    <t>Assets/ResAB/EffectPrefab/BattleEffect/Placed.prefab</t>
-  </si>
-  <si>
-    <t>ResEffect_HealthBar_1</t>
-  </si>
-  <si>
     <t>Assets/ResAB/EffectPrefab/BattleEffect/HealthBar.prefab</t>
   </si>
   <si>
@@ -852,9 +846,6 @@
   </si>
   <si>
     <t>ResEffect_Fire1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/EffectPrefab/FireShow/Fire1.prefab</t>
   </si>
   <si>
     <t>ResEffect_Fire3</t>
@@ -2955,6 +2946,66 @@
   </si>
   <si>
     <t>UI音效挂件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_MonsterCallShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCall的显示圈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/MonsterCallShow.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/FireShow/Fire1.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_HealthBar_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_UnitGameObjectShow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/UnitGameObjectShow.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Placed.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Shield_Physical</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_Shield_Magical</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效：物理护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效：魔法护盾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Shield_Physical.prefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/EffectPrefab/BattleEffect/Shield_Magical.prefab</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3472,24 +3523,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25BB935-2B38-4FA3-A9DC-2A027F739218}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3524,7 +3575,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3551,7 +3602,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -3586,7 +3637,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3615,7 +3666,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3650,305 +3701,327 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>848</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>849</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>210</v>
+        <v>847</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="D30" s="3" t="s">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D39" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>681</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -3962,22 +4035,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA62B718-BD84-4464-9239-32F0565757FB}">
   <dimension ref="A1:W198"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4085,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4112,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -4074,7 +4147,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4103,7 +4176,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -4138,7 +4211,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4163,7 +4236,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4188,120 +4261,132 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D17"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>205</v>
       </c>
@@ -4309,32 +4394,32 @@
         <v>169</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D22" t="s">
+        <v>482</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D22" t="s">
-        <v>485</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>206</v>
       </c>
@@ -4342,87 +4427,87 @@
         <v>169</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D27" s="3" t="s">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="3" t="s">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="E29" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D29" s="3" t="s">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
@@ -4430,10 +4515,10 @@
         <v>22</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>23</v>
       </c>
@@ -4441,458 +4526,458 @@
         <v>23</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="E43" s="6" t="s">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>59</v>
@@ -4901,7 +4986,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>60</v>
       </c>
@@ -4909,10 +4994,10 @@
         <v>61</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>62</v>
       </c>
@@ -4920,10 +5005,10 @@
         <v>63</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>64</v>
       </c>
@@ -4931,10 +5016,10 @@
         <v>65</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>66</v>
       </c>
@@ -4942,10 +5027,10 @@
         <v>67</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>68</v>
       </c>
@@ -4953,10 +5038,10 @@
         <v>69</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>70</v>
       </c>
@@ -4964,10 +5049,10 @@
         <v>71</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>72</v>
       </c>
@@ -4975,10 +5060,10 @@
         <v>73</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>74</v>
       </c>
@@ -4986,10 +5071,10 @@
         <v>75</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>76</v>
       </c>
@@ -4997,10 +5082,10 @@
         <v>77</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>78</v>
       </c>
@@ -5008,10 +5093,10 @@
         <v>79</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>80</v>
       </c>
@@ -5019,10 +5104,10 @@
         <v>81</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>82</v>
       </c>
@@ -5030,10 +5115,10 @@
         <v>83</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>84</v>
       </c>
@@ -5041,10 +5126,10 @@
         <v>85</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>86</v>
       </c>
@@ -5052,10 +5137,10 @@
         <v>87</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>88</v>
       </c>
@@ -5063,10 +5148,10 @@
         <v>89</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>90</v>
       </c>
@@ -5074,10 +5159,10 @@
         <v>91</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>92</v>
       </c>
@@ -5085,10 +5170,10 @@
         <v>93</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>94</v>
       </c>
@@ -5096,10 +5181,10 @@
         <v>95</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>96</v>
       </c>
@@ -5107,10 +5192,10 @@
         <v>97</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>98</v>
       </c>
@@ -5118,10 +5203,10 @@
         <v>99</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>100</v>
       </c>
@@ -5129,10 +5214,10 @@
         <v>101</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>102</v>
       </c>
@@ -5140,10 +5225,10 @@
         <v>103</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>104</v>
       </c>
@@ -5151,10 +5236,10 @@
         <v>105</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>106</v>
       </c>
@@ -5162,744 +5247,744 @@
         <v>107</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D100" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="E104" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="E105" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>124</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>140</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D143" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E143" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D144" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E144" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D145" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E145" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="E146" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="E146" s="6" t="s">
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="10" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="E152" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="E153" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="E153" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="E154" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E154" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D156" t="s">
         <v>141</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D157" t="s">
         <v>142</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D158" t="s">
         <v>143</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D159" t="s">
         <v>144</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D160" t="s">
         <v>145</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D161" t="s">
         <v>146</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D162" t="s">
         <v>147</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D163" t="s">
         <v>148</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D164" t="s">
         <v>149</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D165" t="s">
         <v>150</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D166" t="s">
         <v>151</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D167" t="s">
         <v>152</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D168" t="s">
         <v>153</v>
@@ -5908,290 +5993,290 @@
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D169" t="s">
         <v>154</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D170" t="s">
         <v>155</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>166</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>167</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D174" t="s">
         <v>156</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D175" t="s">
         <v>157</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D176" t="s">
         <v>158</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D177" t="s">
         <v>159</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D178" t="s">
         <v>160</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D179" t="s">
         <v>161</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D180" t="s">
         <v>162</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D181" t="s">
         <v>163</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D182" t="s">
         <v>164</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D189" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="E189" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="E188" s="6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="3" t="s">
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="E192" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D189" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="E195" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="E194" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="E196" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="E197" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="D197" s="3" t="s">
+      <c r="E198" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -6210,20 +6295,20 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6258,7 +6343,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6285,7 +6370,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -6320,7 +6405,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -6349,7 +6434,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -6384,519 +6469,519 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="E21" s="3" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="6" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="3" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
-        <v>777</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>170</v>
       </c>
@@ -6907,7 +6992,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>171</v>
       </c>
@@ -6918,7 +7003,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>172</v>
       </c>
@@ -6929,7 +7014,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>173</v>
       </c>
@@ -6940,7 +7025,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>174</v>
       </c>
@@ -6951,7 +7036,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>175</v>
       </c>
@@ -6962,7 +7047,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>176</v>
       </c>
@@ -6973,7 +7058,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>177</v>
       </c>
@@ -6984,7 +7069,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>178</v>
       </c>
@@ -6995,7 +7080,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>179</v>
       </c>
@@ -7006,7 +7091,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>180</v>
       </c>
@@ -7017,7 +7102,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>181</v>
       </c>
@@ -7028,7 +7113,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>193</v>
       </c>
@@ -7039,7 +7124,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>182</v>
       </c>
@@ -7050,7 +7135,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>183</v>
       </c>
@@ -7061,7 +7146,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>184</v>
       </c>
@@ -7072,7 +7157,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>185</v>
       </c>
@@ -7083,7 +7168,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>186</v>
       </c>
@@ -7094,7 +7179,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>189</v>
       </c>
@@ -7102,271 +7187,271 @@
         <v>190</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
         <v>194</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
         <v>195</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
         <v>196</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
         <v>197</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
         <v>198</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
         <v>200</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="12" t="s">
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -7408,15 +7493,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="60.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7433,7 +7518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7442,7 +7527,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -7459,7 +7544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -7470,7 +7555,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -7487,125 +7572,125 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="C15" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="C15" s="10" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>673</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
